--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1134767.748031707</v>
+        <v>1132320.873463909</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9250856.195468515</v>
+        <v>9250856.195468513</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673407</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>6.84140014930867</v>
+        <v>11.91464376220976</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="X3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.73205987707309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -856,28 +856,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.75721046822443</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -938,25 +938,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="S5" t="n">
-        <v>3.487951988786145</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>6.602605461619501</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>12.73205987707308</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.75721046822444</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,61 +1136,61 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17.42524850757501</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G8" t="n">
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.361305680129117</v>
-      </c>
-      <c r="I8" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1215,70 +1215,70 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="S9" t="n">
         <v>24.30129424928645</v>
       </c>
-      <c r="E9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="G9" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.04785205983618</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>27.59002526031614</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>176.3042927191923</v>
+        <v>336.4918166133067</v>
       </c>
       <c r="C11" t="n">
-        <v>319.0308667208341</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>308.4410165705095</v>
+        <v>308.4410165705091</v>
       </c>
       <c r="E11" t="n">
-        <v>335.6883450220883</v>
+        <v>335.6883450220879</v>
       </c>
       <c r="F11" t="n">
-        <v>360.634020691538</v>
+        <v>360.6340206915376</v>
       </c>
       <c r="G11" t="n">
-        <v>364.6918465065202</v>
+        <v>364.6918465065198</v>
       </c>
       <c r="H11" t="n">
-        <v>248.4901285687061</v>
+        <v>67.33755778954475</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.22251150808945</v>
+        <v>63.22251150808909</v>
       </c>
       <c r="T11" t="n">
-        <v>157.7291137808808</v>
+        <v>157.7291137808805</v>
       </c>
       <c r="U11" t="n">
-        <v>204.7541185809877</v>
+        <v>204.7541185809873</v>
       </c>
       <c r="V11" t="n">
-        <v>281.5102334199614</v>
+        <v>281.510233419961</v>
       </c>
       <c r="W11" t="n">
-        <v>302.9989436672395</v>
+        <v>302.9989436672391</v>
       </c>
       <c r="X11" t="n">
-        <v>323.4890756282956</v>
+        <v>323.4890756282952</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.9959136058797</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I12" t="n">
-        <v>8.915218264397772</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="S12" t="n">
         <v>128.264216864854</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>110.23706371539</v>
+        <v>133.5899551317634</v>
       </c>
       <c r="C13" t="n">
-        <v>121.0047960484543</v>
+        <v>121.004796048454</v>
       </c>
       <c r="D13" t="n">
-        <v>102.3734479680388</v>
+        <v>102.3734479680385</v>
       </c>
       <c r="E13" t="n">
-        <v>100.1919375963957</v>
+        <v>100.1919375963953</v>
       </c>
       <c r="F13" t="n">
-        <v>99.17902297275774</v>
+        <v>99.17902297275739</v>
       </c>
       <c r="G13" t="n">
-        <v>119.7892314429106</v>
+        <v>96.43634002654481</v>
       </c>
       <c r="H13" t="n">
-        <v>98.56142961784447</v>
+        <v>98.56142961784414</v>
       </c>
       <c r="I13" t="n">
-        <v>50.27423861654632</v>
+        <v>50.27423861654596</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.93510003478828</v>
+        <v>42.93510003478793</v>
       </c>
       <c r="S13" t="n">
-        <v>143.621948142043</v>
+        <v>143.6219481420426</v>
       </c>
       <c r="T13" t="n">
-        <v>173.3302030442346</v>
+        <v>173.3302030442343</v>
       </c>
       <c r="U13" t="n">
-        <v>239.9701103318424</v>
+        <v>239.9701103318421</v>
       </c>
       <c r="V13" t="n">
-        <v>205.8956182736545</v>
+        <v>205.8956182736542</v>
       </c>
       <c r="W13" t="n">
-        <v>240.2809732864175</v>
+        <v>240.2809732864172</v>
       </c>
       <c r="X13" t="n">
-        <v>179.4676303388636</v>
+        <v>179.4676303388633</v>
       </c>
       <c r="Y13" t="n">
-        <v>172.3426283019213</v>
+        <v>172.3426283019209</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>336.4918166133071</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>100.3576626408007</v>
+        <v>319.0308667208337</v>
       </c>
       <c r="D14" t="n">
-        <v>308.4410165705095</v>
+        <v>308.4410165705091</v>
       </c>
       <c r="E14" t="n">
-        <v>335.6883450220883</v>
+        <v>171.9967241354001</v>
       </c>
       <c r="F14" t="n">
-        <v>360.634020691538</v>
+        <v>360.6340206915376</v>
       </c>
       <c r="G14" t="n">
-        <v>364.6918465065202</v>
+        <v>364.6918465065199</v>
       </c>
       <c r="H14" t="n">
-        <v>248.4901285687061</v>
+        <v>248.4901285687058</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.22251150808945</v>
+        <v>63.22251150808915</v>
       </c>
       <c r="T14" t="n">
-        <v>157.7291137808808</v>
+        <v>157.7291137808805</v>
       </c>
       <c r="U14" t="n">
-        <v>204.7541185809877</v>
+        <v>204.7541185809874</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>281.5102334199611</v>
       </c>
       <c r="W14" t="n">
-        <v>302.9989436672395</v>
+        <v>302.9989436672392</v>
       </c>
       <c r="X14" t="n">
-        <v>323.4890756282956</v>
+        <v>323.4890756282952</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.9959136058801</v>
+        <v>339.9959136058798</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="S15" t="n">
         <v>128.264216864854</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.5899551317638</v>
+        <v>133.5899551317635</v>
       </c>
       <c r="C16" t="n">
-        <v>121.0047960484543</v>
+        <v>121.004796048454</v>
       </c>
       <c r="D16" t="n">
-        <v>79.02055655166527</v>
+        <v>102.3734479680386</v>
       </c>
       <c r="E16" t="n">
-        <v>100.1919375963957</v>
+        <v>100.1919375963954</v>
       </c>
       <c r="F16" t="n">
-        <v>99.17902297275774</v>
+        <v>99.17902297275745</v>
       </c>
       <c r="G16" t="n">
-        <v>119.7892314429106</v>
+        <v>119.7892314429104</v>
       </c>
       <c r="H16" t="n">
-        <v>98.56142961784447</v>
+        <v>98.5614296178442</v>
       </c>
       <c r="I16" t="n">
-        <v>50.27423861654632</v>
+        <v>26.92134720017914</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.93510003478828</v>
+        <v>42.93510003478799</v>
       </c>
       <c r="S16" t="n">
-        <v>143.621948142043</v>
+        <v>143.6219481420427</v>
       </c>
       <c r="T16" t="n">
-        <v>173.3302030442346</v>
+        <v>173.3302030442343</v>
       </c>
       <c r="U16" t="n">
-        <v>239.9701103318424</v>
+        <v>239.9701103318421</v>
       </c>
       <c r="V16" t="n">
-        <v>205.8956182736545</v>
+        <v>205.8956182736542</v>
       </c>
       <c r="W16" t="n">
-        <v>240.2809732864175</v>
+        <v>240.2809732864172</v>
       </c>
       <c r="X16" t="n">
-        <v>179.4676303388636</v>
+        <v>179.4676303388634</v>
       </c>
       <c r="Y16" t="n">
-        <v>172.3426283019213</v>
+        <v>172.342628301921</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218.5617573422354</v>
+        <v>155.3392458341456</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>308.4410165705095</v>
+        <v>308.4410165705091</v>
       </c>
       <c r="E17" t="n">
-        <v>335.6883450220883</v>
+        <v>335.688345022088</v>
       </c>
       <c r="F17" t="n">
-        <v>360.634020691538</v>
+        <v>360.6340206915376</v>
       </c>
       <c r="G17" t="n">
-        <v>364.6918465065202</v>
+        <v>364.6918465065199</v>
       </c>
       <c r="H17" t="n">
-        <v>248.4901285687061</v>
+        <v>248.4901285687058</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.22251150808915</v>
       </c>
       <c r="T17" t="n">
-        <v>157.7291137808808</v>
+        <v>157.7291137808805</v>
       </c>
       <c r="U17" t="n">
-        <v>204.7541185809877</v>
+        <v>204.7541185809874</v>
       </c>
       <c r="V17" t="n">
-        <v>281.5102334199614</v>
+        <v>281.5102334199611</v>
       </c>
       <c r="W17" t="n">
-        <v>302.9989436672395</v>
+        <v>302.9989436672392</v>
       </c>
       <c r="X17" t="n">
-        <v>323.4890756282956</v>
+        <v>323.4890756282952</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.9959136058801</v>
+        <v>339.9959136058798</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I18" t="n">
-        <v>8.915218264397772</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="S18" t="n">
         <v>128.264216864854</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>133.5899551317638</v>
+        <v>133.5899551317635</v>
       </c>
       <c r="C19" t="n">
-        <v>121.0047960484543</v>
+        <v>121.004796048454</v>
       </c>
       <c r="D19" t="n">
-        <v>102.3734479680388</v>
+        <v>102.3734479680386</v>
       </c>
       <c r="E19" t="n">
-        <v>100.1919375963957</v>
+        <v>100.1919375963954</v>
       </c>
       <c r="F19" t="n">
-        <v>99.17902297275774</v>
+        <v>99.17902297275745</v>
       </c>
       <c r="G19" t="n">
-        <v>119.7892314429106</v>
+        <v>119.7892314429104</v>
       </c>
       <c r="H19" t="n">
-        <v>98.56142961784448</v>
+        <v>98.5614296178442</v>
       </c>
       <c r="I19" t="n">
-        <v>50.27423861654632</v>
+        <v>26.92134720017936</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.93510003478828</v>
+        <v>42.93510003478799</v>
       </c>
       <c r="S19" t="n">
-        <v>143.621948142043</v>
+        <v>143.6219481420427</v>
       </c>
       <c r="T19" t="n">
-        <v>173.3302030442346</v>
+        <v>173.3302030442343</v>
       </c>
       <c r="U19" t="n">
-        <v>239.9701103318424</v>
+        <v>239.9701103318421</v>
       </c>
       <c r="V19" t="n">
-        <v>205.8956182736545</v>
+        <v>205.8956182736542</v>
       </c>
       <c r="W19" t="n">
-        <v>240.2809732864175</v>
+        <v>240.2809732864172</v>
       </c>
       <c r="X19" t="n">
-        <v>156.11473892249</v>
+        <v>179.4676303388634</v>
       </c>
       <c r="Y19" t="n">
-        <v>172.3426283019213</v>
+        <v>172.342628301921</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>336.4918166133071</v>
+        <v>336.4918166133068</v>
       </c>
       <c r="C20" t="n">
-        <v>319.0308667208341</v>
+        <v>319.0308667208337</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>308.4410165705091</v>
       </c>
       <c r="E20" t="n">
-        <v>335.6883450220883</v>
+        <v>335.688345022088</v>
       </c>
       <c r="F20" t="n">
-        <v>360.634020691538</v>
+        <v>225.1424296980633</v>
       </c>
       <c r="G20" t="n">
-        <v>364.6918465065202</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>248.4901285687062</v>
+        <v>248.4901285687058</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.20920435948609</v>
+        <v>63.22251150808915</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>157.7291137808805</v>
       </c>
       <c r="U20" t="n">
-        <v>204.7541185809877</v>
+        <v>204.7541185809874</v>
       </c>
       <c r="V20" t="n">
-        <v>281.5102334199614</v>
+        <v>281.5102334199611</v>
       </c>
       <c r="W20" t="n">
-        <v>302.9989436672395</v>
+        <v>302.9989436672392</v>
       </c>
       <c r="X20" t="n">
-        <v>323.4890756282956</v>
+        <v>323.4890756282952</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.9959136058801</v>
+        <v>339.9959136058798</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I21" t="n">
-        <v>8.915218264397772</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.5899551317638</v>
+        <v>133.5899551317635</v>
       </c>
       <c r="C22" t="n">
-        <v>121.0047960484543</v>
+        <v>121.004796048454</v>
       </c>
       <c r="D22" t="n">
-        <v>79.02055655166527</v>
+        <v>102.3734479680386</v>
       </c>
       <c r="E22" t="n">
-        <v>100.1919375963957</v>
+        <v>100.1919375963954</v>
       </c>
       <c r="F22" t="n">
-        <v>99.17902297275774</v>
+        <v>99.17902297275745</v>
       </c>
       <c r="G22" t="n">
-        <v>119.7892314429106</v>
+        <v>119.7892314429104</v>
       </c>
       <c r="H22" t="n">
-        <v>98.56142961784448</v>
+        <v>98.5614296178442</v>
       </c>
       <c r="I22" t="n">
-        <v>50.27423861654632</v>
+        <v>26.92134720017897</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.93510003478828</v>
+        <v>42.93510003478799</v>
       </c>
       <c r="S22" t="n">
-        <v>143.621948142043</v>
+        <v>143.6219481420427</v>
       </c>
       <c r="T22" t="n">
-        <v>173.3302030442346</v>
+        <v>173.3302030442343</v>
       </c>
       <c r="U22" t="n">
-        <v>239.9701103318424</v>
+        <v>239.9701103318421</v>
       </c>
       <c r="V22" t="n">
-        <v>205.8956182736545</v>
+        <v>205.8956182736542</v>
       </c>
       <c r="W22" t="n">
-        <v>240.2809732864175</v>
+        <v>240.2809732864172</v>
       </c>
       <c r="X22" t="n">
-        <v>179.4676303388636</v>
+        <v>179.4676303388634</v>
       </c>
       <c r="Y22" t="n">
-        <v>172.3426283019213</v>
+        <v>172.342628301921</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>336.4918166133071</v>
+        <v>336.4918166133068</v>
       </c>
       <c r="C23" t="n">
-        <v>319.0308667208341</v>
+        <v>319.0308667208337</v>
       </c>
       <c r="D23" t="n">
-        <v>308.4410165705095</v>
+        <v>308.4410165705091</v>
       </c>
       <c r="E23" t="n">
-        <v>335.6883450220883</v>
+        <v>335.688345022088</v>
       </c>
       <c r="F23" t="n">
-        <v>360.634020691538</v>
+        <v>360.6340206915376</v>
       </c>
       <c r="G23" t="n">
-        <v>364.6918465065202</v>
+        <v>364.6918465065199</v>
       </c>
       <c r="H23" t="n">
-        <v>248.4901285687061</v>
+        <v>248.4901285687058</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>63.22251150808945</v>
+        <v>63.22251150808916</v>
       </c>
       <c r="T23" t="n">
-        <v>157.7291137808808</v>
+        <v>157.7291137808805</v>
       </c>
       <c r="U23" t="n">
-        <v>204.7541185809877</v>
+        <v>204.7541185809874</v>
       </c>
       <c r="V23" t="n">
-        <v>281.5102334199614</v>
+        <v>281.5102334199611</v>
       </c>
       <c r="W23" t="n">
-        <v>302.9989436672395</v>
+        <v>302.9989436672392</v>
       </c>
       <c r="X23" t="n">
-        <v>323.4890756282956</v>
+        <v>323.4890756282952</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.9959136058801</v>
+        <v>339.9959136058798</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I24" t="n">
-        <v>8.915218264397575</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133.5899551317638</v>
+        <v>133.5899551317635</v>
       </c>
       <c r="C25" t="n">
-        <v>121.0047960484543</v>
+        <v>121.004796048454</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3734479680388</v>
+        <v>102.3734479680386</v>
       </c>
       <c r="E25" t="n">
-        <v>100.1919375963957</v>
+        <v>100.1919375963954</v>
       </c>
       <c r="F25" t="n">
-        <v>75.8261315563838</v>
+        <v>99.17902297275745</v>
       </c>
       <c r="G25" t="n">
-        <v>119.7892314429106</v>
+        <v>119.7892314429104</v>
       </c>
       <c r="H25" t="n">
-        <v>98.56142961784447</v>
+        <v>98.5614296178442</v>
       </c>
       <c r="I25" t="n">
-        <v>50.27423861654632</v>
+        <v>26.92134720017959</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.93510003478828</v>
+        <v>42.935100034788</v>
       </c>
       <c r="S25" t="n">
-        <v>143.621948142043</v>
+        <v>143.6219481420427</v>
       </c>
       <c r="T25" t="n">
-        <v>173.3302030442346</v>
+        <v>173.3302030442343</v>
       </c>
       <c r="U25" t="n">
-        <v>239.9701103318424</v>
+        <v>239.9701103318421</v>
       </c>
       <c r="V25" t="n">
-        <v>205.8956182736545</v>
+        <v>205.8956182736542</v>
       </c>
       <c r="W25" t="n">
-        <v>240.2809732864175</v>
+        <v>240.2809732864172</v>
       </c>
       <c r="X25" t="n">
-        <v>179.4676303388636</v>
+        <v>179.4676303388634</v>
       </c>
       <c r="Y25" t="n">
-        <v>172.3426283019213</v>
+        <v>172.342628301921</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I27" t="n">
-        <v>8.915218264397689</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="S27" t="n">
         <v>128.264216864854</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>69.10049756354999</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S28" t="n">
-        <v>108.8399820302384</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T28" t="n">
         <v>219.5722280944081</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I30" t="n">
-        <v>8.915218264397675</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="S30" t="n">
         <v>128.264216864854</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.79336197507328</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T31" t="n">
         <v>219.5722280944081</v>
@@ -3007,13 +3007,13 @@
         <v>286.2121353820159</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>84.65153951300536</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3047,7 @@
         <v>291.5531865334464</v>
       </c>
       <c r="I32" t="n">
-        <v>38.86621762216231</v>
+        <v>38.86621762216234</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>200.7921717456211</v>
       </c>
       <c r="U32" t="n">
-        <v>247.8171765457279</v>
+        <v>247.817176545728</v>
       </c>
       <c r="V32" t="n">
-        <v>324.5732913847016</v>
+        <v>324.5732913847017</v>
       </c>
       <c r="W32" t="n">
         <v>346.0620016319798</v>
@@ -3095,7 +3095,7 @@
         <v>366.5521335930358</v>
       </c>
       <c r="Y32" t="n">
-        <v>383.0589715706203</v>
+        <v>383.0589715706204</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I33" t="n">
-        <v>8.915218264397224</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="S33" t="n">
         <v>128.264216864854</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>176.6530130965041</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>164.0678540131946</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.4365059327791</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>82.6366835308184</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>85.99815799952854</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>186.6850061067832</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>216.3932610089749</v>
       </c>
       <c r="U34" t="n">
-        <v>225.8380345705592</v>
+        <v>283.0331682965827</v>
       </c>
       <c r="V34" t="n">
         <v>248.9586762383948</v>
       </c>
       <c r="W34" t="n">
-        <v>283.3440312511577</v>
+        <v>283.3440312511578</v>
       </c>
       <c r="X34" t="n">
         <v>222.5306883036039</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.4056862666615</v>
+        <v>215.4056862666616</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.24297678541342</v>
+        <v>62.24297678541343</v>
       </c>
       <c r="T35" t="n">
         <v>156.7495790582048</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="S36" t="n">
         <v>128.264216864854</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95556531211228</v>
+        <v>41.95556531211227</v>
       </c>
       <c r="S37" t="n">
         <v>142.642413419367</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.24297678541345</v>
+        <v>62.24297678541343</v>
       </c>
       <c r="T38" t="n">
         <v>156.7495790582048</v>
       </c>
       <c r="U38" t="n">
-        <v>203.7745838583117</v>
+        <v>203.7745838583116</v>
       </c>
       <c r="V38" t="n">
         <v>280.5306986972854</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="S39" t="n">
         <v>128.264216864854</v>
@@ -3664,22 +3664,22 @@
         <v>120.0252613257783</v>
       </c>
       <c r="D40" t="n">
-        <v>101.3939132453629</v>
+        <v>101.3939132453628</v>
       </c>
       <c r="E40" t="n">
-        <v>99.21240287371967</v>
+        <v>99.21240287371965</v>
       </c>
       <c r="F40" t="n">
-        <v>98.19948825008139</v>
+        <v>98.19948825008173</v>
       </c>
       <c r="G40" t="n">
-        <v>118.8096967202347</v>
+        <v>118.8096967202346</v>
       </c>
       <c r="H40" t="n">
-        <v>97.58189489516849</v>
+        <v>97.58189489516847</v>
       </c>
       <c r="I40" t="n">
-        <v>49.29470389387033</v>
+        <v>49.29470389387031</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95556531211228</v>
+        <v>41.95556531211227</v>
       </c>
       <c r="S40" t="n">
         <v>142.642413419367</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.24297678541344</v>
+        <v>62.24297678541345</v>
       </c>
       <c r="T41" t="n">
         <v>156.7495790582048</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="S42" t="n">
         <v>128.264216864854</v>
@@ -3913,10 +3913,10 @@
         <v>118.8096967202347</v>
       </c>
       <c r="H43" t="n">
-        <v>97.58189489516847</v>
+        <v>97.58189489516849</v>
       </c>
       <c r="I43" t="n">
-        <v>49.29470389387031</v>
+        <v>49.29470389387033</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95556531211228</v>
+        <v>41.95556531211229</v>
       </c>
       <c r="S43" t="n">
         <v>142.642413419367</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.24297678541344</v>
+        <v>62.24297678541346</v>
       </c>
       <c r="T44" t="n">
-        <v>156.7495790582048</v>
+        <v>156.7495790582049</v>
       </c>
       <c r="U44" t="n">
         <v>203.7745838583117</v>
@@ -4141,16 +4141,16 @@
         <v>101.3939132453629</v>
       </c>
       <c r="E46" t="n">
-        <v>99.21240287371967</v>
+        <v>99.21240287371968</v>
       </c>
       <c r="F46" t="n">
-        <v>98.19948825008174</v>
+        <v>98.19948825008176</v>
       </c>
       <c r="G46" t="n">
-        <v>118.8096967202346</v>
+        <v>118.8096967202347</v>
       </c>
       <c r="H46" t="n">
-        <v>97.58189489516847</v>
+        <v>97.5818948951685</v>
       </c>
       <c r="I46" t="n">
         <v>49.29470389387033</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95556531211228</v>
+        <v>41.9555653121123</v>
       </c>
       <c r="S46" t="n">
         <v>142.642413419367</v>
       </c>
       <c r="T46" t="n">
-        <v>172.3506683215586</v>
+        <v>172.3506683215587</v>
       </c>
       <c r="U46" t="n">
         <v>238.9905756091664</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F2" t="n">
-        <v>28.75151886964269</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J2" t="n">
         <v>1.224219001210804</v>
@@ -4334,10 +4334,10 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L2" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M2" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N2" t="n">
         <v>61.2109500605402</v>
@@ -4352,28 +4352,28 @@
         <v>51.11933469231312</v>
       </c>
       <c r="R2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="S2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="T2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="U2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="V2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="W2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="X2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.978351653996518</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C3" t="n">
-        <v>1.978351653996518</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="D3" t="n">
-        <v>1.978351653996518</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="E3" t="n">
-        <v>1.978351653996518</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="F3" t="n">
-        <v>1.978351653996518</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="G3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J3" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
-        <v>1.224219001210804</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L3" t="n">
-        <v>1.224219001210804</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M3" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N3" t="n">
         <v>30.9115297805728</v>
@@ -4440,19 +4440,19 @@
         <v>61.2109500605402</v>
       </c>
       <c r="U3" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="V3" t="n">
         <v>45.75363943919166</v>
-      </c>
-      <c r="V3" t="n">
-        <v>30.29632881784312</v>
       </c>
       <c r="W3" t="n">
         <v>30.29632881784312</v>
       </c>
       <c r="X3" t="n">
-        <v>14.83901819649459</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.978351653996518</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="C4" t="n">
         <v>1.224219001210804</v>
@@ -4492,46 +4492,46 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L4" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M4" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N4" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O4" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="P4" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.59615086525642</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R4" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S4" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T4" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U4" t="n">
-        <v>16.68152962255934</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V4" t="n">
-        <v>1.224219001210804</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W4" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="X4" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.13884024390788</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C5" t="n">
-        <v>32.13884024390788</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D5" t="n">
-        <v>32.13884024390788</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E5" t="n">
-        <v>32.13884024390788</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F5" t="n">
         <v>16.68152962255934</v>
@@ -4574,43 +4574,43 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M5" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N5" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="O5" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="P5" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R5" t="n">
-        <v>35.66202407096459</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S5" t="n">
-        <v>32.13884024390788</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T5" t="n">
-        <v>32.13884024390788</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U5" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V5" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W5" t="n">
-        <v>32.13884024390788</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="X5" t="n">
-        <v>32.13884024390788</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="Y5" t="n">
-        <v>32.13884024390788</v>
+        <v>39.08434099311135</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.75363943919166</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="C6" t="n">
-        <v>45.75363943919166</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="D6" t="n">
-        <v>45.75363943919166</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="E6" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="F6" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="G6" t="n">
-        <v>30.29632881784312</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="H6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I6" t="n">
         <v>1.978351653996518</v>
@@ -4650,16 +4650,16 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L6" t="n">
+        <v>16.37392914119451</v>
+      </c>
+      <c r="M6" t="n">
+        <v>16.37392914119451</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16.37392914119451</v>
+      </c>
+      <c r="O6" t="n">
         <v>31.52363928117821</v>
-      </c>
-      <c r="M6" t="n">
-        <v>46.0612399205565</v>
-      </c>
-      <c r="N6" t="n">
-        <v>46.0612399205565</v>
-      </c>
-      <c r="O6" t="n">
-        <v>46.0612399205565</v>
       </c>
       <c r="P6" t="n">
         <v>46.0612399205565</v>
@@ -4668,28 +4668,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S6" t="n">
-        <v>45.75363943919166</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="T6" t="n">
-        <v>45.75363943919166</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="U6" t="n">
-        <v>45.75363943919166</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="V6" t="n">
-        <v>45.75363943919166</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="W6" t="n">
-        <v>45.75363943919166</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="X6" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="Y6" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F7" t="n">
         <v>1.224219001210804</v>
@@ -4735,7 +4735,7 @@
         <v>31.52363928117821</v>
       </c>
       <c r="N7" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O7" t="n">
         <v>61.2109500605402</v>
@@ -4747,28 +4747,28 @@
         <v>58.46202002507908</v>
       </c>
       <c r="R7" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="S7" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="T7" t="n">
-        <v>58.46202002507908</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="U7" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V7" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W7" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X7" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.54739878238201</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.2684856730375</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C8" t="n">
-        <v>100.2684856730375</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D8" t="n">
-        <v>100.2684856730375</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E8" t="n">
-        <v>100.2684856730375</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F8" t="n">
-        <v>72.39977328887976</v>
+        <v>19.80846313958793</v>
       </c>
       <c r="G8" t="n">
-        <v>44.53106090472204</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H8" t="n">
-        <v>42.14590365206637</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I8" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J8" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K8" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L8" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M8" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N8" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O8" t="n">
         <v>83.04597603355158</v>
@@ -4823,31 +4823,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q8" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R8" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S8" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T8" t="n">
-        <v>100.2684856730375</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U8" t="n">
-        <v>100.2684856730375</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V8" t="n">
-        <v>100.2684856730375</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W8" t="n">
-        <v>100.2684856730375</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X8" t="n">
-        <v>100.2684856730375</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y8" t="n">
-        <v>100.2684856730375</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C9" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D9" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E9" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F9" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G9" t="n">
         <v>2.207202020825291</v>
@@ -4887,46 +4887,46 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L9" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M9" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N9" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O9" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P9" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="Q9" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R9" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S9" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T9" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U9" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V9" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W9" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X9" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.57035059274347</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C10" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D10" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E10" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F10" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G10" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H10" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I10" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J10" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K10" t="n">
         <v>2.207202020825291</v>
@@ -4978,34 +4978,34 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P10" t="n">
-        <v>105.7399236434024</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T10" t="n">
-        <v>77.87121125924466</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U10" t="n">
-        <v>77.87121125924466</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V10" t="n">
-        <v>77.87121125924466</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W10" t="n">
-        <v>77.87121125924466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X10" t="n">
-        <v>77.87121125924466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y10" t="n">
-        <v>77.87121125924466</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2027.598835153874</v>
+        <v>1522.363039699333</v>
       </c>
       <c r="C11" t="n">
-        <v>1705.345434425759</v>
+        <v>1522.363039699333</v>
       </c>
       <c r="D11" t="n">
-        <v>1393.788852031305</v>
+        <v>1210.806457304879</v>
       </c>
       <c r="E11" t="n">
-        <v>1054.709715645357</v>
+        <v>871.7273209189318</v>
       </c>
       <c r="F11" t="n">
-        <v>690.4329270680461</v>
+        <v>507.4505323416211</v>
       </c>
       <c r="G11" t="n">
-        <v>322.0573245362079</v>
+        <v>139.0749298097821</v>
       </c>
       <c r="H11" t="n">
-        <v>71.05719466882793</v>
+        <v>71.05719466882785</v>
       </c>
       <c r="I11" t="n">
-        <v>71.05719466882793</v>
+        <v>71.05719466882785</v>
       </c>
       <c r="J11" t="n">
-        <v>258.9157659562679</v>
+        <v>258.9157659562678</v>
       </c>
       <c r="K11" t="n">
-        <v>591.2055852512108</v>
+        <v>591.2055852512107</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.34225102029</v>
+        <v>1277.564633866401</v>
       </c>
       <c r="M11" t="n">
-        <v>1571.762768503204</v>
+        <v>1808.985151349314</v>
       </c>
       <c r="N11" t="n">
-        <v>2116.39603392087</v>
+        <v>2353.618416766981</v>
       </c>
       <c r="O11" t="n">
-        <v>2617.342521226183</v>
+        <v>2854.564904072293</v>
       </c>
       <c r="P11" t="n">
-        <v>3010.387757475718</v>
+        <v>3247.610140321828</v>
       </c>
       <c r="Q11" t="n">
-        <v>3467.567455285256</v>
+        <v>3494.59799737806</v>
       </c>
       <c r="R11" t="n">
-        <v>3552.859733441396</v>
+        <v>3552.859733441392</v>
       </c>
       <c r="S11" t="n">
-        <v>3488.998610705952</v>
+        <v>3488.998610705949</v>
       </c>
       <c r="T11" t="n">
-        <v>3329.676273553547</v>
+        <v>3329.676273553544</v>
       </c>
       <c r="U11" t="n">
-        <v>3122.85393155255</v>
+        <v>3122.853931552547</v>
       </c>
       <c r="V11" t="n">
-        <v>2838.500160421275</v>
+        <v>2838.500160421273</v>
       </c>
       <c r="W11" t="n">
-        <v>2532.440621363457</v>
+        <v>2532.440621363456</v>
       </c>
       <c r="X11" t="n">
-        <v>2205.683979314675</v>
+        <v>2205.683979314673</v>
       </c>
       <c r="Y11" t="n">
-        <v>2205.683979314675</v>
+        <v>1862.253763551158</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>936.1568734335995</v>
+        <v>936.1568734335982</v>
       </c>
       <c r="C12" t="n">
-        <v>761.7038441524725</v>
+        <v>761.7038441524712</v>
       </c>
       <c r="D12" t="n">
-        <v>612.7694344912212</v>
+        <v>612.76943449122</v>
       </c>
       <c r="E12" t="n">
-        <v>453.5319794857657</v>
+        <v>453.5319794857645</v>
       </c>
       <c r="F12" t="n">
-        <v>306.9974215126507</v>
+        <v>306.9974215126495</v>
       </c>
       <c r="G12" t="n">
-        <v>170.6277570713764</v>
+        <v>170.6277570713752</v>
       </c>
       <c r="H12" t="n">
-        <v>80.0624656429671</v>
+        <v>80.06246564296588</v>
       </c>
       <c r="I12" t="n">
-        <v>71.05719466882793</v>
+        <v>71.05719466882785</v>
       </c>
       <c r="J12" t="n">
-        <v>164.1266258105826</v>
+        <v>164.1266258105825</v>
       </c>
       <c r="K12" t="n">
         <v>401.3519322376557</v>
@@ -5142,28 +5142,28 @@
         <v>2559.671027077251</v>
       </c>
       <c r="R12" t="n">
-        <v>2559.671027077251</v>
+        <v>2559.671027077249</v>
       </c>
       <c r="S12" t="n">
-        <v>2430.111212062247</v>
+        <v>2430.111212062245</v>
       </c>
       <c r="T12" t="n">
-        <v>2237.441753109807</v>
+        <v>2237.441753109806</v>
       </c>
       <c r="U12" t="n">
-        <v>2009.373474384098</v>
+        <v>2009.373474384097</v>
       </c>
       <c r="V12" t="n">
-        <v>1774.221366152356</v>
+        <v>1774.221366152354</v>
       </c>
       <c r="W12" t="n">
-        <v>1519.984009424154</v>
+        <v>1519.984009424153</v>
       </c>
       <c r="X12" t="n">
-        <v>1312.132509218621</v>
+        <v>1312.13250921862</v>
       </c>
       <c r="Y12" t="n">
-        <v>1104.372210453668</v>
+        <v>1104.372210453666</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>769.4148757425128</v>
+        <v>745.8260965340603</v>
       </c>
       <c r="C13" t="n">
-        <v>647.1878090269024</v>
+        <v>623.5990298184502</v>
       </c>
       <c r="D13" t="n">
-        <v>543.7802858268631</v>
+        <v>520.1915066184113</v>
       </c>
       <c r="E13" t="n">
-        <v>442.5763084567665</v>
+        <v>418.987529248315</v>
       </c>
       <c r="F13" t="n">
-        <v>342.3954771711525</v>
+        <v>318.8066979627015</v>
       </c>
       <c r="G13" t="n">
-        <v>221.3962534914449</v>
+        <v>221.3962534914441</v>
       </c>
       <c r="H13" t="n">
-        <v>121.8392538774606</v>
+        <v>121.8392538774602</v>
       </c>
       <c r="I13" t="n">
-        <v>71.05719466882793</v>
+        <v>71.05719466882785</v>
       </c>
       <c r="J13" t="n">
-        <v>161.5780936691591</v>
+        <v>161.5780936691594</v>
       </c>
       <c r="K13" t="n">
-        <v>410.7182255365951</v>
+        <v>410.7182255365957</v>
       </c>
       <c r="L13" t="n">
-        <v>772.255725007008</v>
+        <v>772.255725007009</v>
       </c>
       <c r="M13" t="n">
-        <v>1161.346880307792</v>
+        <v>1161.346880307794</v>
       </c>
       <c r="N13" t="n">
-        <v>1547.709470698559</v>
+        <v>1547.709470698561</v>
       </c>
       <c r="O13" t="n">
-        <v>1892.056292130731</v>
+        <v>1892.056292130733</v>
       </c>
       <c r="P13" t="n">
-        <v>2169.791047611142</v>
+        <v>2169.791047611144</v>
       </c>
       <c r="Q13" t="n">
-        <v>2292.729295408326</v>
+        <v>2292.729295408329</v>
       </c>
       <c r="R13" t="n">
-        <v>2249.360507494399</v>
+        <v>2249.360507494402</v>
       </c>
       <c r="S13" t="n">
-        <v>2104.287832603447</v>
+        <v>2104.28783260345</v>
       </c>
       <c r="T13" t="n">
-        <v>1929.206819427452</v>
+        <v>1929.206819427456</v>
       </c>
       <c r="U13" t="n">
-        <v>1686.812768587207</v>
+        <v>1686.812768587211</v>
       </c>
       <c r="V13" t="n">
-        <v>1478.837396593617</v>
+        <v>1478.837396593621</v>
       </c>
       <c r="W13" t="n">
-        <v>1236.129342768953</v>
+        <v>1236.129342768957</v>
       </c>
       <c r="X13" t="n">
-        <v>1054.848908083231</v>
+        <v>1054.848908083236</v>
       </c>
       <c r="Y13" t="n">
-        <v>880.7654451519976</v>
+        <v>880.7654451520032</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1806.716810830608</v>
+        <v>1862.253763551157</v>
       </c>
       <c r="C14" t="n">
-        <v>1705.345434425759</v>
+        <v>1540.000362823042</v>
       </c>
       <c r="D14" t="n">
-        <v>1393.788852031305</v>
+        <v>1228.443780428589</v>
       </c>
       <c r="E14" t="n">
         <v>1054.709715645357</v>
       </c>
       <c r="F14" t="n">
-        <v>690.4329270680463</v>
+        <v>690.4329270680458</v>
       </c>
       <c r="G14" t="n">
-        <v>322.0573245362079</v>
+        <v>322.0573245362075</v>
       </c>
       <c r="H14" t="n">
-        <v>71.05719466882793</v>
+        <v>71.05719466882785</v>
       </c>
       <c r="I14" t="n">
-        <v>71.05719466882793</v>
+        <v>71.05719466882785</v>
       </c>
       <c r="J14" t="n">
-        <v>258.9157659562679</v>
+        <v>258.9157659562678</v>
       </c>
       <c r="K14" t="n">
-        <v>591.2055852512108</v>
+        <v>591.2055852512107</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.34225102029</v>
+        <v>1277.564633866401</v>
       </c>
       <c r="M14" t="n">
-        <v>1571.762768503204</v>
+        <v>1808.985151349314</v>
       </c>
       <c r="N14" t="n">
-        <v>2116.39603392087</v>
+        <v>2353.618416766981</v>
       </c>
       <c r="O14" t="n">
-        <v>2854.564904072297</v>
+        <v>2854.564904072293</v>
       </c>
       <c r="P14" t="n">
-        <v>3247.610140321832</v>
+        <v>3247.610140321828</v>
       </c>
       <c r="Q14" t="n">
-        <v>3494.597997378065</v>
+        <v>3494.59799737806</v>
       </c>
       <c r="R14" t="n">
-        <v>3552.859733441396</v>
+        <v>3552.859733441392</v>
       </c>
       <c r="S14" t="n">
-        <v>3488.998610705952</v>
+        <v>3488.998610705949</v>
       </c>
       <c r="T14" t="n">
-        <v>3329.676273553547</v>
+        <v>3329.676273553544</v>
       </c>
       <c r="U14" t="n">
-        <v>3122.85393155255</v>
+        <v>3122.853931552546</v>
       </c>
       <c r="V14" t="n">
-        <v>3122.85393155255</v>
+        <v>2838.500160421273</v>
       </c>
       <c r="W14" t="n">
-        <v>2816.794392494733</v>
+        <v>2532.440621363455</v>
       </c>
       <c r="X14" t="n">
-        <v>2490.037750445949</v>
+        <v>2205.683979314672</v>
       </c>
       <c r="Y14" t="n">
-        <v>2146.607534682434</v>
+        <v>1862.253763551157</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>936.1568734335984</v>
+        <v>936.1568734335982</v>
       </c>
       <c r="C15" t="n">
-        <v>761.7038441524714</v>
+        <v>761.7038441524712</v>
       </c>
       <c r="D15" t="n">
-        <v>612.7694344912202</v>
+        <v>612.76943449122</v>
       </c>
       <c r="E15" t="n">
-        <v>453.5319794857646</v>
+        <v>453.5319794857645</v>
       </c>
       <c r="F15" t="n">
-        <v>306.9974215126496</v>
+        <v>306.9974215126495</v>
       </c>
       <c r="G15" t="n">
         <v>170.6277570713752</v>
       </c>
       <c r="H15" t="n">
-        <v>80.06246564296596</v>
+        <v>80.06246564296588</v>
       </c>
       <c r="I15" t="n">
-        <v>71.05719466882793</v>
+        <v>71.05719466882785</v>
       </c>
       <c r="J15" t="n">
-        <v>164.1266258105826</v>
+        <v>164.1266258105825</v>
       </c>
       <c r="K15" t="n">
         <v>401.3519322376557</v>
@@ -5370,13 +5370,13 @@
         <v>1684.149119415228</v>
       </c>
       <c r="O15" t="n">
-        <v>2093.579671062484</v>
+        <v>2093.579671062485</v>
       </c>
       <c r="P15" t="n">
-        <v>2402.850718551178</v>
+        <v>2402.850718551179</v>
       </c>
       <c r="Q15" t="n">
-        <v>2559.671027077249</v>
+        <v>2559.671027077251</v>
       </c>
       <c r="R15" t="n">
         <v>2559.671027077249</v>
@@ -5391,7 +5391,7 @@
         <v>2009.373474384097</v>
       </c>
       <c r="V15" t="n">
-        <v>1774.221366152355</v>
+        <v>1774.221366152354</v>
       </c>
       <c r="W15" t="n">
         <v>1519.984009424153</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>745.8260965340547</v>
+        <v>745.826096534059</v>
       </c>
       <c r="C16" t="n">
-        <v>623.5990298184443</v>
+        <v>623.5990298184489</v>
       </c>
       <c r="D16" t="n">
-        <v>543.7802858268632</v>
+        <v>520.1915066184099</v>
       </c>
       <c r="E16" t="n">
-        <v>442.5763084567666</v>
+        <v>418.9875292483136</v>
       </c>
       <c r="F16" t="n">
-        <v>342.3954771711527</v>
+        <v>318.8066979627001</v>
       </c>
       <c r="G16" t="n">
-        <v>221.396253491445</v>
+        <v>197.8074742829929</v>
       </c>
       <c r="H16" t="n">
-        <v>121.8392538774606</v>
+        <v>98.2504746690088</v>
       </c>
       <c r="I16" t="n">
-        <v>71.05719466882793</v>
+        <v>71.05719466882785</v>
       </c>
       <c r="J16" t="n">
         <v>161.5780936691591</v>
       </c>
       <c r="K16" t="n">
-        <v>410.7182255365951</v>
+        <v>410.7182255365955</v>
       </c>
       <c r="L16" t="n">
-        <v>772.2557250070081</v>
+        <v>772.2557250070087</v>
       </c>
       <c r="M16" t="n">
-        <v>1161.346880307792</v>
+        <v>1161.346880307793</v>
       </c>
       <c r="N16" t="n">
-        <v>1547.709470698559</v>
+        <v>1547.70947069856</v>
       </c>
       <c r="O16" t="n">
-        <v>1892.056292130731</v>
+        <v>1892.056292130732</v>
       </c>
       <c r="P16" t="n">
-        <v>2169.791047611142</v>
+        <v>2169.791047611144</v>
       </c>
       <c r="Q16" t="n">
-        <v>2292.729295408326</v>
+        <v>2292.729295408329</v>
       </c>
       <c r="R16" t="n">
-        <v>2249.360507494399</v>
+        <v>2249.360507494401</v>
       </c>
       <c r="S16" t="n">
-        <v>2104.287832603447</v>
+        <v>2104.287832603449</v>
       </c>
       <c r="T16" t="n">
-        <v>1929.206819427452</v>
+        <v>1929.206819427455</v>
       </c>
       <c r="U16" t="n">
-        <v>1686.812768587207</v>
+        <v>1686.81276858721</v>
       </c>
       <c r="V16" t="n">
-        <v>1478.837396593617</v>
+        <v>1478.83739659362</v>
       </c>
       <c r="W16" t="n">
-        <v>1236.129342768952</v>
+        <v>1236.129342768956</v>
       </c>
       <c r="X16" t="n">
-        <v>1054.848908083232</v>
+        <v>1054.848908083235</v>
       </c>
       <c r="Y16" t="n">
-        <v>880.7654451519979</v>
+        <v>880.765445152002</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1705.345434425759</v>
+        <v>1705.345434425758</v>
       </c>
       <c r="C17" t="n">
-        <v>1705.345434425759</v>
+        <v>1705.345434425758</v>
       </c>
       <c r="D17" t="n">
-        <v>1393.788852031305</v>
+        <v>1393.788852031304</v>
       </c>
       <c r="E17" t="n">
-        <v>1054.709715645357</v>
+        <v>1054.709715645356</v>
       </c>
       <c r="F17" t="n">
-        <v>690.4329270680464</v>
+        <v>690.4329270680458</v>
       </c>
       <c r="G17" t="n">
-        <v>322.0573245362079</v>
+        <v>322.0573245362075</v>
       </c>
       <c r="H17" t="n">
-        <v>71.05719466882793</v>
+        <v>71.05719466882785</v>
       </c>
       <c r="I17" t="n">
-        <v>71.05719466882793</v>
+        <v>71.05719466882785</v>
       </c>
       <c r="J17" t="n">
-        <v>258.9157659562679</v>
+        <v>426.3214149766208</v>
       </c>
       <c r="K17" t="n">
-        <v>591.2055852512108</v>
+        <v>758.6112342715637</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.34225102029</v>
+        <v>1277.564633866401</v>
       </c>
       <c r="M17" t="n">
-        <v>1808.985151349319</v>
+        <v>1808.985151349314</v>
       </c>
       <c r="N17" t="n">
-        <v>2353.618416766985</v>
+        <v>2353.618416766981</v>
       </c>
       <c r="O17" t="n">
-        <v>2854.564904072297</v>
+        <v>2854.564904072293</v>
       </c>
       <c r="P17" t="n">
-        <v>3247.610140321832</v>
+        <v>3247.610140321828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3494.597997378065</v>
+        <v>3494.59799737806</v>
       </c>
       <c r="R17" t="n">
-        <v>3552.859733441396</v>
+        <v>3552.859733441392</v>
       </c>
       <c r="S17" t="n">
-        <v>3552.859733441396</v>
+        <v>3488.998610705949</v>
       </c>
       <c r="T17" t="n">
-        <v>3393.537396288991</v>
+        <v>3329.676273553544</v>
       </c>
       <c r="U17" t="n">
-        <v>3186.715054287994</v>
+        <v>3122.853931552546</v>
       </c>
       <c r="V17" t="n">
-        <v>2902.361283156719</v>
+        <v>2838.500160421273</v>
       </c>
       <c r="W17" t="n">
-        <v>2596.301744098902</v>
+        <v>2532.440621363455</v>
       </c>
       <c r="X17" t="n">
-        <v>2269.545102050118</v>
+        <v>2205.683979314672</v>
       </c>
       <c r="Y17" t="n">
-        <v>1926.114886286603</v>
+        <v>1862.253763551157</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>936.1568734335995</v>
+        <v>936.1568734335982</v>
       </c>
       <c r="C18" t="n">
-        <v>761.7038441524725</v>
+        <v>761.7038441524712</v>
       </c>
       <c r="D18" t="n">
-        <v>612.7694344912212</v>
+        <v>612.76943449122</v>
       </c>
       <c r="E18" t="n">
-        <v>453.5319794857657</v>
+        <v>453.5319794857645</v>
       </c>
       <c r="F18" t="n">
-        <v>306.9974215126507</v>
+        <v>306.9974215126495</v>
       </c>
       <c r="G18" t="n">
-        <v>170.6277570713764</v>
+        <v>170.6277570713752</v>
       </c>
       <c r="H18" t="n">
-        <v>80.0624656429671</v>
+        <v>80.06246564296588</v>
       </c>
       <c r="I18" t="n">
-        <v>71.05719466882793</v>
+        <v>71.05719466882785</v>
       </c>
       <c r="J18" t="n">
-        <v>164.1266258105826</v>
+        <v>164.1266258105825</v>
       </c>
       <c r="K18" t="n">
         <v>401.3519322376557</v>
@@ -5616,28 +5616,28 @@
         <v>2559.671027077251</v>
       </c>
       <c r="R18" t="n">
-        <v>2559.671027077251</v>
+        <v>2559.671027077249</v>
       </c>
       <c r="S18" t="n">
-        <v>2430.111212062247</v>
+        <v>2430.111212062245</v>
       </c>
       <c r="T18" t="n">
-        <v>2237.441753109807</v>
+        <v>2237.441753109806</v>
       </c>
       <c r="U18" t="n">
-        <v>2009.373474384098</v>
+        <v>2009.373474384097</v>
       </c>
       <c r="V18" t="n">
-        <v>1774.221366152356</v>
+        <v>1774.221366152354</v>
       </c>
       <c r="W18" t="n">
-        <v>1519.984009424154</v>
+        <v>1519.984009424153</v>
       </c>
       <c r="X18" t="n">
-        <v>1312.132509218621</v>
+        <v>1312.13250921862</v>
       </c>
       <c r="Y18" t="n">
-        <v>1104.372210453668</v>
+        <v>1104.372210453666</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>769.4148757425131</v>
+        <v>745.8260965340605</v>
       </c>
       <c r="C19" t="n">
-        <v>647.1878090269026</v>
+        <v>623.5990298184504</v>
       </c>
       <c r="D19" t="n">
-        <v>543.7802858268633</v>
+        <v>520.1915066184114</v>
       </c>
       <c r="E19" t="n">
-        <v>442.5763084567666</v>
+        <v>418.987529248315</v>
       </c>
       <c r="F19" t="n">
-        <v>342.3954771711527</v>
+        <v>318.8066979627014</v>
       </c>
       <c r="G19" t="n">
-        <v>221.396253491445</v>
+        <v>197.807474282994</v>
       </c>
       <c r="H19" t="n">
-        <v>121.8392538774606</v>
+        <v>98.25047466900969</v>
       </c>
       <c r="I19" t="n">
-        <v>71.05719466882793</v>
+        <v>71.05719466882785</v>
       </c>
       <c r="J19" t="n">
-        <v>161.5780936691591</v>
+        <v>161.5780936691593</v>
       </c>
       <c r="K19" t="n">
-        <v>410.7182255365951</v>
+        <v>410.7182255365956</v>
       </c>
       <c r="L19" t="n">
-        <v>772.2557250070081</v>
+        <v>772.2557250070088</v>
       </c>
       <c r="M19" t="n">
-        <v>1161.346880307792</v>
+        <v>1161.346880307794</v>
       </c>
       <c r="N19" t="n">
-        <v>1547.709470698559</v>
+        <v>1547.70947069856</v>
       </c>
       <c r="O19" t="n">
-        <v>1892.056292130731</v>
+        <v>1892.056292130733</v>
       </c>
       <c r="P19" t="n">
-        <v>2169.791047611142</v>
+        <v>2169.791047611144</v>
       </c>
       <c r="Q19" t="n">
-        <v>2292.729295408327</v>
+        <v>2292.729295408329</v>
       </c>
       <c r="R19" t="n">
-        <v>2249.360507494399</v>
+        <v>2249.360507494402</v>
       </c>
       <c r="S19" t="n">
-        <v>2104.287832603447</v>
+        <v>2104.28783260345</v>
       </c>
       <c r="T19" t="n">
-        <v>1929.206819427452</v>
+        <v>1929.206819427456</v>
       </c>
       <c r="U19" t="n">
-        <v>1686.812768587207</v>
+        <v>1686.812768587211</v>
       </c>
       <c r="V19" t="n">
-        <v>1478.837396593617</v>
+        <v>1478.837396593621</v>
       </c>
       <c r="W19" t="n">
-        <v>1236.129342768952</v>
+        <v>1236.129342768957</v>
       </c>
       <c r="X19" t="n">
-        <v>1078.43768729169</v>
+        <v>1054.848908083237</v>
       </c>
       <c r="Y19" t="n">
-        <v>904.3542243604563</v>
+        <v>880.7654451520035</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1716.042252759421</v>
+        <v>1522.363039699332</v>
       </c>
       <c r="C20" t="n">
-        <v>1393.788852031305</v>
+        <v>1200.109638971217</v>
       </c>
       <c r="D20" t="n">
-        <v>1393.788852031305</v>
+        <v>888.5530565767635</v>
       </c>
       <c r="E20" t="n">
-        <v>1054.709715645358</v>
+        <v>549.4739201908164</v>
       </c>
       <c r="F20" t="n">
-        <v>690.4329270680465</v>
+        <v>322.0573245362075</v>
       </c>
       <c r="G20" t="n">
-        <v>322.0573245362079</v>
+        <v>322.0573245362075</v>
       </c>
       <c r="H20" t="n">
-        <v>71.05719466882793</v>
+        <v>71.05719466882785</v>
       </c>
       <c r="I20" t="n">
-        <v>71.05719466882793</v>
+        <v>71.05719466882785</v>
       </c>
       <c r="J20" t="n">
-        <v>258.9157659562679</v>
+        <v>426.3214149766208</v>
       </c>
       <c r="K20" t="n">
-        <v>591.2055852512108</v>
+        <v>758.6112342715637</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.34225102029</v>
+        <v>1207.747900040643</v>
       </c>
       <c r="M20" t="n">
-        <v>1571.762768503204</v>
+        <v>1739.168417523557</v>
       </c>
       <c r="N20" t="n">
-        <v>2353.618416766985</v>
+        <v>2283.801682941223</v>
       </c>
       <c r="O20" t="n">
-        <v>2854.564904072297</v>
+        <v>2784.748170246536</v>
       </c>
       <c r="P20" t="n">
-        <v>3247.610140321832</v>
+        <v>3247.610140321828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3494.597997378065</v>
+        <v>3494.59799737806</v>
       </c>
       <c r="R20" t="n">
-        <v>3552.859733441396</v>
+        <v>3552.859733441392</v>
       </c>
       <c r="S20" t="n">
-        <v>3523.355486613634</v>
+        <v>3488.998610705949</v>
       </c>
       <c r="T20" t="n">
-        <v>3523.355486613634</v>
+        <v>3329.676273553544</v>
       </c>
       <c r="U20" t="n">
-        <v>3316.533144612637</v>
+        <v>3122.853931552546</v>
       </c>
       <c r="V20" t="n">
-        <v>3032.179373481362</v>
+        <v>2838.500160421272</v>
       </c>
       <c r="W20" t="n">
-        <v>2726.119834423544</v>
+        <v>2532.440621363455</v>
       </c>
       <c r="X20" t="n">
-        <v>2399.363192374761</v>
+        <v>2205.683979314672</v>
       </c>
       <c r="Y20" t="n">
-        <v>2055.932976611246</v>
+        <v>1862.253763551157</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>936.1568734335995</v>
+        <v>936.1568734335982</v>
       </c>
       <c r="C21" t="n">
-        <v>761.7038441524725</v>
+        <v>761.7038441524712</v>
       </c>
       <c r="D21" t="n">
-        <v>612.7694344912212</v>
+        <v>612.76943449122</v>
       </c>
       <c r="E21" t="n">
-        <v>453.5319794857657</v>
+        <v>453.5319794857645</v>
       </c>
       <c r="F21" t="n">
-        <v>306.9974215126507</v>
+        <v>306.9974215126495</v>
       </c>
       <c r="G21" t="n">
-        <v>170.6277570713764</v>
+        <v>170.6277570713752</v>
       </c>
       <c r="H21" t="n">
-        <v>80.0624656429671</v>
+        <v>80.06246564296588</v>
       </c>
       <c r="I21" t="n">
-        <v>71.05719466882793</v>
+        <v>71.05719466882785</v>
       </c>
       <c r="J21" t="n">
-        <v>164.1266258105826</v>
+        <v>164.1266258105825</v>
       </c>
       <c r="K21" t="n">
         <v>401.3519322376557</v>
       </c>
       <c r="L21" t="n">
-        <v>766.6531733051399</v>
+        <v>766.6531733051388</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.299359656754</v>
+        <v>1212.299359656753</v>
       </c>
       <c r="N21" t="n">
-        <v>1684.149119415228</v>
+        <v>1684.149119415227</v>
       </c>
       <c r="O21" t="n">
-        <v>2093.579671062485</v>
+        <v>2093.579671062484</v>
       </c>
       <c r="P21" t="n">
-        <v>2402.850718551179</v>
+        <v>2402.850718551178</v>
       </c>
       <c r="Q21" t="n">
-        <v>2559.671027077251</v>
+        <v>2559.671027077249</v>
       </c>
       <c r="R21" t="n">
-        <v>2559.671027077251</v>
+        <v>2559.671027077249</v>
       </c>
       <c r="S21" t="n">
-        <v>2430.111212062247</v>
+        <v>2430.111212062245</v>
       </c>
       <c r="T21" t="n">
-        <v>2237.441753109807</v>
+        <v>2237.441753109806</v>
       </c>
       <c r="U21" t="n">
-        <v>2009.373474384098</v>
+        <v>2009.373474384097</v>
       </c>
       <c r="V21" t="n">
-        <v>1774.221366152356</v>
+        <v>1774.221366152354</v>
       </c>
       <c r="W21" t="n">
-        <v>1519.984009424154</v>
+        <v>1519.984009424153</v>
       </c>
       <c r="X21" t="n">
-        <v>1312.132509218621</v>
+        <v>1312.13250921862</v>
       </c>
       <c r="Y21" t="n">
-        <v>1104.372210453668</v>
+        <v>1104.372210453666</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>745.8260965340548</v>
+        <v>745.8260965340592</v>
       </c>
       <c r="C22" t="n">
-        <v>623.5990298184444</v>
+        <v>623.599029818449</v>
       </c>
       <c r="D22" t="n">
-        <v>543.7802858268633</v>
+        <v>520.19150661841</v>
       </c>
       <c r="E22" t="n">
-        <v>442.5763084567666</v>
+        <v>418.9875292483137</v>
       </c>
       <c r="F22" t="n">
-        <v>342.3954771711527</v>
+        <v>318.8066979627001</v>
       </c>
       <c r="G22" t="n">
-        <v>221.396253491445</v>
+        <v>197.8074742829927</v>
       </c>
       <c r="H22" t="n">
-        <v>121.8392538774606</v>
+        <v>98.25047466900863</v>
       </c>
       <c r="I22" t="n">
-        <v>71.05719466882793</v>
+        <v>71.05719466882785</v>
       </c>
       <c r="J22" t="n">
-        <v>161.5780936691591</v>
+        <v>161.5780936691593</v>
       </c>
       <c r="K22" t="n">
-        <v>410.7182255365951</v>
+        <v>410.7182255365956</v>
       </c>
       <c r="L22" t="n">
-        <v>772.255725007008</v>
+        <v>772.2557250070088</v>
       </c>
       <c r="M22" t="n">
-        <v>1161.346880307792</v>
+        <v>1161.346880307794</v>
       </c>
       <c r="N22" t="n">
-        <v>1547.709470698559</v>
+        <v>1547.70947069856</v>
       </c>
       <c r="O22" t="n">
-        <v>1892.05629213073</v>
+        <v>1892.056292130732</v>
       </c>
       <c r="P22" t="n">
-        <v>2169.791047611141</v>
+        <v>2169.791047611144</v>
       </c>
       <c r="Q22" t="n">
-        <v>2292.729295408326</v>
+        <v>2292.729295408329</v>
       </c>
       <c r="R22" t="n">
-        <v>2249.360507494398</v>
+        <v>2249.360507494401</v>
       </c>
       <c r="S22" t="n">
-        <v>2104.287832603446</v>
+        <v>2104.287832603449</v>
       </c>
       <c r="T22" t="n">
-        <v>1929.206819427452</v>
+        <v>1929.206819427455</v>
       </c>
       <c r="U22" t="n">
-        <v>1686.812768587207</v>
+        <v>1686.81276858721</v>
       </c>
       <c r="V22" t="n">
-        <v>1478.837396593616</v>
+        <v>1478.83739659362</v>
       </c>
       <c r="W22" t="n">
-        <v>1236.129342768952</v>
+        <v>1236.129342768956</v>
       </c>
       <c r="X22" t="n">
-        <v>1054.848908083232</v>
+        <v>1054.848908083236</v>
       </c>
       <c r="Y22" t="n">
-        <v>880.7654451519981</v>
+        <v>880.7654451520021</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2037.909769754988</v>
+        <v>2037.909769754985</v>
       </c>
       <c r="C23" t="n">
-        <v>1715.656369026872</v>
+        <v>1715.65636902687</v>
       </c>
       <c r="D23" t="n">
-        <v>1404.099786632418</v>
+        <v>1404.099786632417</v>
       </c>
       <c r="E23" t="n">
-        <v>1065.020650246471</v>
+        <v>1065.02065024647</v>
       </c>
       <c r="F23" t="n">
-        <v>700.7438616691597</v>
+        <v>700.7438616691588</v>
       </c>
       <c r="G23" t="n">
-        <v>332.3682591373209</v>
+        <v>332.3682591373206</v>
       </c>
       <c r="H23" t="n">
-        <v>81.36812926994101</v>
+        <v>81.36812926994091</v>
       </c>
       <c r="I23" t="n">
-        <v>81.36812926994101</v>
+        <v>81.36812926994091</v>
       </c>
       <c r="J23" t="n">
-        <v>436.632349577734</v>
+        <v>436.6323495777339</v>
       </c>
       <c r="K23" t="n">
-        <v>768.9221688726768</v>
+        <v>1089.82612731813</v>
       </c>
       <c r="L23" t="n">
-        <v>1218.058834641756</v>
+        <v>1793.111363922054</v>
       </c>
       <c r="M23" t="n">
-        <v>1749.47935212467</v>
+        <v>2324.531881404968</v>
       </c>
       <c r="N23" t="n">
-        <v>2294.112617542336</v>
+        <v>2869.165146822634</v>
       </c>
       <c r="O23" t="n">
-        <v>2795.059104847649</v>
+        <v>3370.111634127947</v>
       </c>
       <c r="P23" t="n">
-        <v>3506.685062186952</v>
+        <v>3763.156870377481</v>
       </c>
       <c r="Q23" t="n">
-        <v>3963.86475999649</v>
+        <v>4010.144727433714</v>
       </c>
       <c r="R23" t="n">
-        <v>4068.40646349705</v>
+        <v>4068.406463497045</v>
       </c>
       <c r="S23" t="n">
-        <v>4004.545340761606</v>
+        <v>4004.545340761602</v>
       </c>
       <c r="T23" t="n">
-        <v>3845.223003609201</v>
+        <v>3845.223003609197</v>
       </c>
       <c r="U23" t="n">
-        <v>3638.400661608203</v>
+        <v>3638.4006616082</v>
       </c>
       <c r="V23" t="n">
-        <v>3354.046890476929</v>
+        <v>3354.046890476925</v>
       </c>
       <c r="W23" t="n">
-        <v>3047.987351419111</v>
+        <v>3047.987351419108</v>
       </c>
       <c r="X23" t="n">
-        <v>2721.230709370328</v>
+        <v>2721.230709370325</v>
       </c>
       <c r="Y23" t="n">
-        <v>2377.800493606813</v>
+        <v>2377.80049360681</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>946.4678080347123</v>
+        <v>946.4678080347117</v>
       </c>
       <c r="C24" t="n">
-        <v>772.0147787535853</v>
+        <v>772.0147787535847</v>
       </c>
       <c r="D24" t="n">
-        <v>623.0803690923341</v>
+        <v>623.0803690923335</v>
       </c>
       <c r="E24" t="n">
-        <v>463.8429140868786</v>
+        <v>463.842914086878</v>
       </c>
       <c r="F24" t="n">
-        <v>317.3083561137636</v>
+        <v>317.308356113763</v>
       </c>
       <c r="G24" t="n">
-        <v>180.9386916724893</v>
+        <v>180.9386916724887</v>
       </c>
       <c r="H24" t="n">
-        <v>90.37340024407997</v>
+        <v>90.37340024407942</v>
       </c>
       <c r="I24" t="n">
-        <v>81.36812926994101</v>
+        <v>81.36812926994091</v>
       </c>
       <c r="J24" t="n">
-        <v>174.4375604116957</v>
+        <v>174.4375604116956</v>
       </c>
       <c r="K24" t="n">
-        <v>411.6628668387688</v>
+        <v>411.6628668387687</v>
       </c>
       <c r="L24" t="n">
-        <v>776.964107906253</v>
+        <v>776.9641079062526</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.610294257867</v>
+        <v>1222.610294257866</v>
       </c>
       <c r="N24" t="n">
         <v>1694.460054016341</v>
@@ -6084,7 +6084,7 @@
         <v>2103.890605663598</v>
       </c>
       <c r="P24" t="n">
-        <v>2413.161653152292</v>
+        <v>2413.161653152291</v>
       </c>
       <c r="Q24" t="n">
         <v>2569.981961678363</v>
@@ -6102,10 +6102,10 @@
         <v>2019.684408985211</v>
       </c>
       <c r="V24" t="n">
-        <v>1784.532300753469</v>
+        <v>1784.532300753468</v>
       </c>
       <c r="W24" t="n">
-        <v>1530.294944025267</v>
+        <v>1530.294944025266</v>
       </c>
       <c r="X24" t="n">
         <v>1322.443443819734</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>756.1370311351674</v>
+        <v>756.1370311351727</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9099644195569</v>
+        <v>633.9099644195626</v>
       </c>
       <c r="D25" t="n">
-        <v>530.5024412195177</v>
+        <v>530.5024412195236</v>
       </c>
       <c r="E25" t="n">
-        <v>429.2984638494211</v>
+        <v>429.2984638494273</v>
       </c>
       <c r="F25" t="n">
-        <v>352.7064117722657</v>
+        <v>329.1176325638137</v>
       </c>
       <c r="G25" t="n">
-        <v>231.707188092558</v>
+        <v>208.1184088841064</v>
       </c>
       <c r="H25" t="n">
-        <v>132.1501884785737</v>
+        <v>108.5614092701223</v>
       </c>
       <c r="I25" t="n">
-        <v>81.36812926994101</v>
+        <v>81.36812926994091</v>
       </c>
       <c r="J25" t="n">
-        <v>171.8890282702722</v>
+        <v>171.8890282702721</v>
       </c>
       <c r="K25" t="n">
         <v>421.0291601377082</v>
       </c>
       <c r="L25" t="n">
-        <v>782.5666596081212</v>
+        <v>782.5666596081214</v>
       </c>
       <c r="M25" t="n">
-        <v>1171.657814908905</v>
+        <v>1171.657814908906</v>
       </c>
       <c r="N25" t="n">
-        <v>1558.020405299672</v>
+        <v>1558.020405299673</v>
       </c>
       <c r="O25" t="n">
-        <v>1902.367226731844</v>
+        <v>1902.367226731845</v>
       </c>
       <c r="P25" t="n">
-        <v>2180.101982212255</v>
+        <v>2180.101982212256</v>
       </c>
       <c r="Q25" t="n">
-        <v>2303.040230009439</v>
+        <v>2303.040230009441</v>
       </c>
       <c r="R25" t="n">
-        <v>2259.671442095512</v>
+        <v>2259.671442095514</v>
       </c>
       <c r="S25" t="n">
-        <v>2114.598767204559</v>
+        <v>2114.598767204562</v>
       </c>
       <c r="T25" t="n">
-        <v>1939.517754028565</v>
+        <v>1939.517754028568</v>
       </c>
       <c r="U25" t="n">
-        <v>1697.12370318832</v>
+        <v>1697.123703188324</v>
       </c>
       <c r="V25" t="n">
-        <v>1489.14833119473</v>
+        <v>1489.148331194734</v>
       </c>
       <c r="W25" t="n">
-        <v>1246.440277370065</v>
+        <v>1246.44027737007</v>
       </c>
       <c r="X25" t="n">
-        <v>1065.159842684344</v>
+        <v>1065.159842684349</v>
       </c>
       <c r="Y25" t="n">
-        <v>891.0763797531106</v>
+        <v>891.0763797531157</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1261.830076518532</v>
       </c>
       <c r="F26" t="n">
-        <v>850.8441717289243</v>
+        <v>850.8441717289244</v>
       </c>
       <c r="G26" t="n">
         <v>435.7594529847893</v>
@@ -6224,28 +6224,28 @@
         <v>95.58032336208744</v>
       </c>
       <c r="J26" t="n">
-        <v>450.8445436698804</v>
+        <v>283.4388946495274</v>
       </c>
       <c r="K26" t="n">
-        <v>783.1343629648234</v>
+        <v>936.6326723899233</v>
       </c>
       <c r="L26" t="n">
-        <v>1645.755631138849</v>
+        <v>1385.769338159003</v>
       </c>
       <c r="M26" t="n">
-        <v>2177.176148621762</v>
+        <v>1917.189855641916</v>
       </c>
       <c r="N26" t="n">
-        <v>2721.809414039429</v>
+        <v>2819.142695215822</v>
       </c>
       <c r="O26" t="n">
-        <v>3599.748080794859</v>
+        <v>3697.081361971253</v>
       </c>
       <c r="P26" t="n">
-        <v>4263.574734231503</v>
+        <v>4408.707319310555</v>
       </c>
       <c r="Q26" t="n">
-        <v>4720.754432041041</v>
+        <v>4655.695176366788</v>
       </c>
       <c r="R26" t="n">
         <v>4779.016168104372</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>960.6800021268589</v>
+        <v>960.6800021268579</v>
       </c>
       <c r="C27" t="n">
-        <v>786.2269728457319</v>
+        <v>786.2269728457309</v>
       </c>
       <c r="D27" t="n">
-        <v>637.2925631844806</v>
+        <v>637.2925631844796</v>
       </c>
       <c r="E27" t="n">
-        <v>478.0551081790251</v>
+        <v>478.0551081790242</v>
       </c>
       <c r="F27" t="n">
-        <v>331.5205502059101</v>
+        <v>331.5205502059091</v>
       </c>
       <c r="G27" t="n">
-        <v>195.1508857646358</v>
+        <v>195.1508857646348</v>
       </c>
       <c r="H27" t="n">
-        <v>104.5855943362265</v>
+        <v>104.5855943362255</v>
       </c>
       <c r="I27" t="n">
         <v>95.58032336208744</v>
@@ -6327,28 +6327,28 @@
         <v>2584.19415577051</v>
       </c>
       <c r="R27" t="n">
-        <v>2584.19415577051</v>
+        <v>2584.194155770509</v>
       </c>
       <c r="S27" t="n">
-        <v>2454.634340755506</v>
+        <v>2454.634340755505</v>
       </c>
       <c r="T27" t="n">
-        <v>2261.964881803067</v>
+        <v>2261.964881803066</v>
       </c>
       <c r="U27" t="n">
-        <v>2033.896603077358</v>
+        <v>2033.896603077357</v>
       </c>
       <c r="V27" t="n">
-        <v>1798.744494845615</v>
+        <v>1798.744494845614</v>
       </c>
       <c r="W27" t="n">
-        <v>1544.507138117414</v>
+        <v>1544.507138117413</v>
       </c>
       <c r="X27" t="n">
-        <v>1336.655637911881</v>
+        <v>1336.65563791188</v>
       </c>
       <c r="Y27" t="n">
-        <v>1128.895339146927</v>
+        <v>1128.895339146926</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>558.091704334395</v>
+        <v>165.3788057495117</v>
       </c>
       <c r="C28" t="n">
-        <v>558.091704334395</v>
+        <v>165.3788057495117</v>
       </c>
       <c r="D28" t="n">
-        <v>558.091704334395</v>
+        <v>165.3788057495117</v>
       </c>
       <c r="E28" t="n">
-        <v>410.178610752002</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2886632540917</v>
+        <v>95.58032336208744</v>
       </c>
       <c r="G28" t="n">
         <v>95.58032336208744</v>
@@ -6406,28 +6406,28 @@
         <v>1951.015585704212</v>
       </c>
       <c r="R28" t="n">
-        <v>1951.015585704212</v>
+        <v>1860.937681577988</v>
       </c>
       <c r="S28" t="n">
-        <v>1841.076209916092</v>
+        <v>1669.155890474739</v>
       </c>
       <c r="T28" t="n">
-        <v>1619.286080527801</v>
+        <v>1447.365761086448</v>
       </c>
       <c r="U28" t="n">
-        <v>1330.18291347526</v>
+        <v>1158.262594033907</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.498425269373</v>
+        <v>903.5781058280197</v>
       </c>
       <c r="W28" t="n">
-        <v>786.0812552324123</v>
+        <v>614.1609357910592</v>
       </c>
       <c r="X28" t="n">
-        <v>558.091704334395</v>
+        <v>386.1713848930417</v>
       </c>
       <c r="Y28" t="n">
-        <v>558.091704334395</v>
+        <v>165.3788057495117</v>
       </c>
     </row>
     <row r="29">
@@ -6443,46 +6443,46 @@
         <v>2005.884027723527</v>
       </c>
       <c r="D29" t="n">
-        <v>1647.618329116777</v>
+        <v>1647.618329116776</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.830076518533</v>
+        <v>1261.830076518532</v>
       </c>
       <c r="F29" t="n">
-        <v>850.8441717289252</v>
+        <v>850.8441717289245</v>
       </c>
       <c r="G29" t="n">
-        <v>435.7594529847902</v>
+        <v>435.7594529847894</v>
       </c>
       <c r="H29" t="n">
-        <v>138.0502069051136</v>
+        <v>138.0502069051133</v>
       </c>
       <c r="I29" t="n">
         <v>95.58032336208746</v>
       </c>
       <c r="J29" t="n">
-        <v>450.8445436698804</v>
+        <v>283.4388946495274</v>
       </c>
       <c r="K29" t="n">
-        <v>1083.760405792858</v>
+        <v>715.8462062992469</v>
       </c>
       <c r="L29" t="n">
-        <v>1532.897071561937</v>
+        <v>1164.982872068326</v>
       </c>
       <c r="M29" t="n">
-        <v>2064.317589044851</v>
+        <v>1696.40338955124</v>
       </c>
       <c r="N29" t="n">
-        <v>2608.950854462517</v>
+        <v>2674.01011013677</v>
       </c>
       <c r="O29" t="n">
-        <v>3486.889521217948</v>
+        <v>3551.948776892201</v>
       </c>
       <c r="P29" t="n">
-        <v>4198.51547855725</v>
+        <v>4263.574734231503</v>
       </c>
       <c r="Q29" t="n">
-        <v>4655.695176366788</v>
+        <v>4720.754432041042</v>
       </c>
       <c r="R29" t="n">
         <v>4779.016168104373</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>960.6800021268589</v>
+        <v>960.6800021268579</v>
       </c>
       <c r="C30" t="n">
-        <v>786.2269728457319</v>
+        <v>786.2269728457309</v>
       </c>
       <c r="D30" t="n">
-        <v>637.2925631844806</v>
+        <v>637.2925631844796</v>
       </c>
       <c r="E30" t="n">
-        <v>478.0551081790251</v>
+        <v>478.0551081790242</v>
       </c>
       <c r="F30" t="n">
-        <v>331.5205502059101</v>
+        <v>331.5205502059091</v>
       </c>
       <c r="G30" t="n">
-        <v>195.1508857646358</v>
+        <v>195.1508857646348</v>
       </c>
       <c r="H30" t="n">
-        <v>104.5855943362265</v>
+        <v>104.5855943362255</v>
       </c>
       <c r="I30" t="n">
         <v>95.58032336208746</v>
@@ -6564,28 +6564,28 @@
         <v>2584.19415577051</v>
       </c>
       <c r="R30" t="n">
-        <v>2584.19415577051</v>
+        <v>2584.194155770509</v>
       </c>
       <c r="S30" t="n">
-        <v>2454.634340755506</v>
+        <v>2454.634340755505</v>
       </c>
       <c r="T30" t="n">
-        <v>2261.964881803067</v>
+        <v>2261.964881803066</v>
       </c>
       <c r="U30" t="n">
-        <v>2033.896603077358</v>
+        <v>2033.896603077357</v>
       </c>
       <c r="V30" t="n">
-        <v>1798.744494845615</v>
+        <v>1798.744494845614</v>
       </c>
       <c r="W30" t="n">
-        <v>1544.507138117414</v>
+        <v>1544.507138117413</v>
       </c>
       <c r="X30" t="n">
-        <v>1336.655637911881</v>
+        <v>1336.65563791188</v>
       </c>
       <c r="Y30" t="n">
-        <v>1128.895339146927</v>
+        <v>1128.895339146926</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>706.5613659906185</v>
+        <v>562.5462392847232</v>
       </c>
       <c r="C31" t="n">
-        <v>706.5613659906185</v>
+        <v>393.6100563568163</v>
       </c>
       <c r="D31" t="n">
-        <v>556.4447265782827</v>
+        <v>243.4934169444806</v>
       </c>
       <c r="E31" t="n">
-        <v>556.4447265782827</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="F31" t="n">
-        <v>409.5547790803723</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="G31" t="n">
-        <v>241.8464391883682</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="H31" t="n">
         <v>95.58032336208746</v>
@@ -6619,7 +6619,7 @@
         <v>95.58032336208746</v>
       </c>
       <c r="J31" t="n">
-        <v>140.3216175627469</v>
+        <v>140.3216175627468</v>
       </c>
       <c r="K31" t="n">
         <v>343.6821446305111</v>
@@ -6643,28 +6643,28 @@
         <v>1951.015585704212</v>
       </c>
       <c r="R31" t="n">
-        <v>1951.015585704212</v>
+        <v>1860.937681577988</v>
       </c>
       <c r="S31" t="n">
-        <v>1951.015585704212</v>
+        <v>1669.155890474739</v>
       </c>
       <c r="T31" t="n">
-        <v>1729.225456315921</v>
+        <v>1447.365761086448</v>
       </c>
       <c r="U31" t="n">
-        <v>1440.12228926338</v>
+        <v>1158.262594033906</v>
       </c>
       <c r="V31" t="n">
-        <v>1185.437801057493</v>
+        <v>1072.755988465214</v>
       </c>
       <c r="W31" t="n">
-        <v>1185.437801057493</v>
+        <v>783.3388184282534</v>
       </c>
       <c r="X31" t="n">
-        <v>957.4482501594753</v>
+        <v>783.3388184282534</v>
       </c>
       <c r="Y31" t="n">
-        <v>736.6556710159451</v>
+        <v>562.5462392847232</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>840.2279551170884</v>
       </c>
       <c r="G32" t="n">
-        <v>428.3543142370273</v>
+        <v>428.3543142370272</v>
       </c>
       <c r="H32" t="n">
         <v>133.8561460214248</v>
@@ -6698,25 +6698,25 @@
         <v>94.59734034247296</v>
       </c>
       <c r="J32" t="n">
-        <v>282.4559116299129</v>
+        <v>449.8615606502659</v>
       </c>
       <c r="K32" t="n">
-        <v>614.7457309248557</v>
+        <v>1103.055338390662</v>
       </c>
       <c r="L32" t="n">
-        <v>1063.882396693935</v>
+        <v>1965.676606564687</v>
       </c>
       <c r="M32" t="n">
-        <v>1595.302914176849</v>
+        <v>2497.097124047601</v>
       </c>
       <c r="N32" t="n">
-        <v>2572.909634762379</v>
+        <v>3088.574265324866</v>
       </c>
       <c r="O32" t="n">
-        <v>3450.848301517809</v>
+        <v>3966.512932080297</v>
       </c>
       <c r="P32" t="n">
-        <v>4162.474258857113</v>
+        <v>4359.558168329831</v>
       </c>
       <c r="Q32" t="n">
         <v>4606.546025386064</v>
@@ -6743,7 +6743,7 @@
         <v>3121.703032907592</v>
       </c>
       <c r="Y32" t="n">
-        <v>2734.774778795855</v>
+        <v>2734.774778795854</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>959.6970191072439</v>
+        <v>959.6970191072434</v>
       </c>
       <c r="C33" t="n">
-        <v>785.2439898261169</v>
+        <v>785.2439898261164</v>
       </c>
       <c r="D33" t="n">
-        <v>636.3095801648657</v>
+        <v>636.3095801648651</v>
       </c>
       <c r="E33" t="n">
-        <v>477.0721251594102</v>
+        <v>477.0721251594097</v>
       </c>
       <c r="F33" t="n">
-        <v>330.5375671862952</v>
+        <v>330.5375671862946</v>
       </c>
       <c r="G33" t="n">
-        <v>194.1679027450209</v>
+        <v>194.1679027450203</v>
       </c>
       <c r="H33" t="n">
-        <v>103.6026113166116</v>
+        <v>103.602611316611</v>
       </c>
       <c r="I33" t="n">
         <v>94.59734034247296</v>
@@ -6801,28 +6801,28 @@
         <v>2583.211172750895</v>
       </c>
       <c r="R33" t="n">
-        <v>2583.211172750895</v>
+        <v>2583.211172750894</v>
       </c>
       <c r="S33" t="n">
-        <v>2453.651357735891</v>
+        <v>2453.65135773589</v>
       </c>
       <c r="T33" t="n">
-        <v>2260.981898783452</v>
+        <v>2260.981898783451</v>
       </c>
       <c r="U33" t="n">
-        <v>2032.913620057743</v>
+        <v>2032.913620057742</v>
       </c>
       <c r="V33" t="n">
         <v>1797.761511826</v>
       </c>
       <c r="W33" t="n">
-        <v>1543.524155097799</v>
+        <v>1543.524155097798</v>
       </c>
       <c r="X33" t="n">
-        <v>1335.672654892266</v>
+        <v>1335.672654892265</v>
       </c>
       <c r="Y33" t="n">
-        <v>1127.912356127312</v>
+        <v>1127.912356127311</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.59734034247296</v>
+        <v>490.6994044604453</v>
       </c>
       <c r="C34" t="n">
-        <v>94.59734034247296</v>
+        <v>324.9742993966122</v>
       </c>
       <c r="D34" t="n">
-        <v>94.59734034247296</v>
+        <v>178.0687378483501</v>
       </c>
       <c r="E34" t="n">
         <v>94.59734034247296</v>
@@ -6859,7 +6859,7 @@
         <v>142.4858119577113</v>
       </c>
       <c r="K34" t="n">
-        <v>348.9935164400544</v>
+        <v>348.9935164400543</v>
       </c>
       <c r="L34" t="n">
         <v>667.8985885253744</v>
@@ -6880,28 +6880,28 @@
         <v>1975.210022001228</v>
       </c>
       <c r="R34" t="n">
-        <v>1888.343195739079</v>
+        <v>1975.210022001228</v>
       </c>
       <c r="S34" t="n">
-        <v>1699.772482499904</v>
+        <v>1975.210022001228</v>
       </c>
       <c r="T34" t="n">
-        <v>1481.193430975687</v>
+        <v>1756.630970477011</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.074204136738</v>
+        <v>1470.738881288544</v>
       </c>
       <c r="V34" t="n">
-        <v>1001.600793794925</v>
+        <v>1219.265470946732</v>
       </c>
       <c r="W34" t="n">
-        <v>715.3947016220383</v>
+        <v>933.0593787738449</v>
       </c>
       <c r="X34" t="n">
-        <v>490.6162285880948</v>
+        <v>708.2809057399014</v>
       </c>
       <c r="Y34" t="n">
-        <v>273.0347273086387</v>
+        <v>490.6994044604453</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1399.859376577544</v>
       </c>
       <c r="E35" t="n">
-        <v>1061.7696692044</v>
+        <v>1061.769669204401</v>
       </c>
       <c r="F35" t="n">
-        <v>698.4823096398932</v>
+        <v>698.4823096398936</v>
       </c>
       <c r="G35" t="n">
         <v>331.0961361208586</v>
@@ -6935,22 +6935,22 @@
         <v>81.0854352662827</v>
       </c>
       <c r="J35" t="n">
-        <v>403.7183611577945</v>
+        <v>277.2806840896585</v>
       </c>
       <c r="K35" t="n">
-        <v>736.0081804527374</v>
+        <v>609.5705033846014</v>
       </c>
       <c r="L35" t="n">
-        <v>1185.144846221817</v>
+        <v>1058.707169153681</v>
       </c>
       <c r="M35" t="n">
-        <v>1716.565363704731</v>
+        <v>2035.146084794499</v>
       </c>
       <c r="N35" t="n">
-        <v>2261.198629122397</v>
+        <v>2579.779350212165</v>
       </c>
       <c r="O35" t="n">
-        <v>2762.14511642771</v>
+        <v>3080.725837517477</v>
       </c>
       <c r="P35" t="n">
         <v>3473.771073767012</v>
@@ -6977,10 +6977,10 @@
         <v>3038.799796300217</v>
       </c>
       <c r="X35" t="n">
-        <v>2713.032583264237</v>
+        <v>2713.032583264238</v>
       </c>
       <c r="Y35" t="n">
-        <v>2370.591796513526</v>
+        <v>2370.591796513527</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>946.1851140310537</v>
+        <v>946.1851140310531</v>
       </c>
       <c r="C36" t="n">
-        <v>771.7320847499267</v>
+        <v>771.7320847499261</v>
       </c>
       <c r="D36" t="n">
-        <v>622.7976750886753</v>
+        <v>622.7976750886749</v>
       </c>
       <c r="E36" t="n">
-        <v>463.5602200832197</v>
+        <v>463.5602200832194</v>
       </c>
       <c r="F36" t="n">
-        <v>317.0256621101048</v>
+        <v>317.0256621101043</v>
       </c>
       <c r="G36" t="n">
-        <v>180.6559976688305</v>
+        <v>180.65599766883</v>
       </c>
       <c r="H36" t="n">
-        <v>90.09070624042121</v>
+        <v>90.09070624042073</v>
       </c>
       <c r="I36" t="n">
         <v>81.0854352662827</v>
       </c>
       <c r="J36" t="n">
-        <v>174.1548664080373</v>
+        <v>174.1548664080374</v>
       </c>
       <c r="K36" t="n">
-        <v>411.3801728351107</v>
+        <v>411.3801728351104</v>
       </c>
       <c r="L36" t="n">
-        <v>776.6814139025951</v>
+        <v>776.6814139025947</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.327600254209</v>
+        <v>1222.327600254208</v>
       </c>
       <c r="N36" t="n">
         <v>1694.177360012683</v>
@@ -7038,28 +7038,28 @@
         <v>2569.699267674705</v>
       </c>
       <c r="R36" t="n">
-        <v>2569.699267674705</v>
+        <v>2569.699267674704</v>
       </c>
       <c r="S36" t="n">
-        <v>2440.139452659701</v>
+        <v>2440.1394526597</v>
       </c>
       <c r="T36" t="n">
         <v>2247.469993707261</v>
       </c>
       <c r="U36" t="n">
-        <v>2019.401714981553</v>
+        <v>2019.401714981552</v>
       </c>
       <c r="V36" t="n">
-        <v>1784.24960674981</v>
+        <v>1784.249606749809</v>
       </c>
       <c r="W36" t="n">
         <v>1530.012250021608</v>
       </c>
       <c r="X36" t="n">
-        <v>1322.160749816076</v>
+        <v>1322.160749816075</v>
       </c>
       <c r="Y36" t="n">
-        <v>1114.400451051122</v>
+        <v>1114.400451051121</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>772.5171132503394</v>
+        <v>772.5171132503401</v>
       </c>
       <c r="C37" t="n">
-        <v>651.279475547533</v>
+        <v>651.2794755475337</v>
       </c>
       <c r="D37" t="n">
-        <v>548.8613813602979</v>
+        <v>548.8613813602985</v>
       </c>
       <c r="E37" t="n">
-        <v>448.6468330030053</v>
+        <v>448.6468330030059</v>
       </c>
       <c r="F37" t="n">
-        <v>349.4554307301955</v>
+        <v>349.455430730196</v>
       </c>
       <c r="G37" t="n">
-        <v>229.4456360632917</v>
+        <v>229.4456360632923</v>
       </c>
       <c r="H37" t="n">
-        <v>130.8780654621114</v>
+        <v>130.8780654621113</v>
       </c>
       <c r="I37" t="n">
         <v>81.0854352662827</v>
@@ -7096,10 +7096,10 @@
         <v>172.5760736420631</v>
       </c>
       <c r="K37" t="n">
-        <v>422.6859448849483</v>
+        <v>422.6859448849484</v>
       </c>
       <c r="L37" t="n">
-        <v>785.1931837308105</v>
+        <v>785.1931837308106</v>
       </c>
       <c r="M37" t="n">
         <v>1175.254078407044</v>
@@ -7111,34 +7111,34 @@
         <v>1907.902968980881</v>
       </c>
       <c r="P37" t="n">
-        <v>2186.607463836741</v>
+        <v>2186.607463836742</v>
       </c>
       <c r="Q37" t="n">
         <v>2310.515451009375</v>
       </c>
       <c r="R37" t="n">
-        <v>2268.136092108251</v>
+        <v>2268.136092108252</v>
       </c>
       <c r="S37" t="n">
-        <v>2124.052846230103</v>
+        <v>2124.052846230104</v>
       </c>
       <c r="T37" t="n">
-        <v>1949.961262066912</v>
+        <v>1949.961262066913</v>
       </c>
       <c r="U37" t="n">
         <v>1708.556640239472</v>
       </c>
       <c r="V37" t="n">
-        <v>1501.570697258685</v>
+        <v>1501.570697258686</v>
       </c>
       <c r="W37" t="n">
-        <v>1259.852072446825</v>
+        <v>1259.852072446826</v>
       </c>
       <c r="X37" t="n">
-        <v>1079.561066773908</v>
+        <v>1079.561066773909</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.4670328554787</v>
+        <v>906.4670328554794</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1710.426529959193</v>
       </c>
       <c r="D38" t="n">
-        <v>1399.859376577543</v>
+        <v>1399.859376577544</v>
       </c>
       <c r="E38" t="n">
         <v>1061.7696692044</v>
       </c>
       <c r="F38" t="n">
-        <v>698.4823096398927</v>
+        <v>698.4823096398932</v>
       </c>
       <c r="G38" t="n">
         <v>331.0961361208586</v>
@@ -7175,16 +7175,16 @@
         <v>268.9440065537226</v>
       </c>
       <c r="K38" t="n">
-        <v>922.1377842941185</v>
+        <v>601.2338258486654</v>
       </c>
       <c r="L38" t="n">
-        <v>1778.976663739143</v>
+        <v>1050.370491617745</v>
       </c>
       <c r="M38" t="n">
-        <v>2310.397181222057</v>
+        <v>1581.791009100659</v>
       </c>
       <c r="N38" t="n">
-        <v>2855.030446639723</v>
+        <v>2478.038267189605</v>
       </c>
       <c r="O38" t="n">
         <v>3355.976933945036</v>
@@ -7272,7 +7272,7 @@
         <v>2412.878959148633</v>
       </c>
       <c r="Q39" t="n">
-        <v>2569.699267674704</v>
+        <v>2569.699267674705</v>
       </c>
       <c r="R39" t="n">
         <v>2569.699267674704</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>772.517113250339</v>
+        <v>772.5171132503397</v>
       </c>
       <c r="C40" t="n">
-        <v>651.2794755475326</v>
+        <v>651.2794755475333</v>
       </c>
       <c r="D40" t="n">
-        <v>548.8613813602974</v>
+        <v>548.8613813602981</v>
       </c>
       <c r="E40" t="n">
-        <v>448.6468330030048</v>
+        <v>448.6468330030054</v>
       </c>
       <c r="F40" t="n">
-        <v>349.4554307301953</v>
+        <v>349.4554307301956</v>
       </c>
       <c r="G40" t="n">
-        <v>229.4456360632916</v>
+        <v>229.4456360632919</v>
       </c>
       <c r="H40" t="n">
         <v>130.8780654621113</v>
@@ -7330,13 +7330,13 @@
         <v>81.0854352662827</v>
       </c>
       <c r="J40" t="n">
-        <v>172.5760736420631</v>
+        <v>172.5760736420632</v>
       </c>
       <c r="K40" t="n">
-        <v>422.6859448849482</v>
+        <v>422.6859448849485</v>
       </c>
       <c r="L40" t="n">
-        <v>785.1931837308105</v>
+        <v>785.1931837308107</v>
       </c>
       <c r="M40" t="n">
         <v>1175.254078407044</v>
@@ -7372,10 +7372,10 @@
         <v>1259.852072446826</v>
       </c>
       <c r="X40" t="n">
-        <v>1079.561066773908</v>
+        <v>1079.561066773909</v>
       </c>
       <c r="Y40" t="n">
-        <v>906.4670328554782</v>
+        <v>906.4670328554789</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2031.690501674505</v>
       </c>
       <c r="C41" t="n">
-        <v>1710.426529959193</v>
+        <v>1710.426529959194</v>
       </c>
       <c r="D41" t="n">
         <v>1399.859376577544</v>
@@ -7397,7 +7397,7 @@
         <v>1061.7696692044</v>
       </c>
       <c r="F41" t="n">
-        <v>698.4823096398932</v>
+        <v>698.4823096398931</v>
       </c>
       <c r="G41" t="n">
         <v>331.0961361208586</v>
@@ -7415,22 +7415,22 @@
         <v>768.6394748690186</v>
       </c>
       <c r="L41" t="n">
-        <v>1217.776140638098</v>
+        <v>1631.260743043044</v>
       </c>
       <c r="M41" t="n">
-        <v>1749.196658121012</v>
+        <v>2162.681260525958</v>
       </c>
       <c r="N41" t="n">
-        <v>2293.829923538678</v>
+        <v>2707.314525943624</v>
       </c>
       <c r="O41" t="n">
-        <v>2794.776410843991</v>
+        <v>3208.261013248937</v>
       </c>
       <c r="P41" t="n">
-        <v>3473.771073767013</v>
+        <v>3601.306249498472</v>
       </c>
       <c r="Q41" t="n">
-        <v>3930.950771576551</v>
+        <v>3930.95077157655</v>
       </c>
       <c r="R41" t="n">
         <v>4054.271763314135</v>
@@ -7442,13 +7442,13 @@
         <v>3833.067161451894</v>
       </c>
       <c r="U41" t="n">
-        <v>3627.2342484637</v>
+        <v>3627.234248463701</v>
       </c>
       <c r="V41" t="n">
         <v>3343.86990634523</v>
       </c>
       <c r="W41" t="n">
-        <v>3038.799796300216</v>
+        <v>3038.799796300217</v>
       </c>
       <c r="X41" t="n">
         <v>2713.032583264237</v>
@@ -7500,16 +7500,16 @@
         <v>1222.327600254208</v>
       </c>
       <c r="N42" t="n">
-        <v>1694.177360012682</v>
+        <v>1694.177360012683</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.607911659939</v>
+        <v>2103.60791165994</v>
       </c>
       <c r="P42" t="n">
-        <v>2412.878959148632</v>
+        <v>2412.878959148633</v>
       </c>
       <c r="Q42" t="n">
-        <v>2569.699267674704</v>
+        <v>2569.699267674705</v>
       </c>
       <c r="R42" t="n">
         <v>2569.699267674704</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>772.5171132503399</v>
+        <v>772.5171132503395</v>
       </c>
       <c r="C43" t="n">
-        <v>651.2794755475335</v>
+        <v>651.2794755475333</v>
       </c>
       <c r="D43" t="n">
-        <v>548.8613813602983</v>
+        <v>548.8613813602979</v>
       </c>
       <c r="E43" t="n">
-        <v>448.6468330030057</v>
+        <v>448.6468330030052</v>
       </c>
       <c r="F43" t="n">
-        <v>349.4554307301958</v>
+        <v>349.4554307301954</v>
       </c>
       <c r="G43" t="n">
-        <v>229.4456360632921</v>
+        <v>229.4456360632917</v>
       </c>
       <c r="H43" t="n">
-        <v>130.8780654621119</v>
+        <v>130.8780654621113</v>
       </c>
       <c r="I43" t="n">
         <v>81.0854352662827</v>
       </c>
       <c r="J43" t="n">
-        <v>172.5760736420631</v>
+        <v>172.5760736420634</v>
       </c>
       <c r="K43" t="n">
-        <v>422.6859448849484</v>
+        <v>422.6859448849486</v>
       </c>
       <c r="L43" t="n">
-        <v>785.1931837308107</v>
+        <v>785.1931837308111</v>
       </c>
       <c r="M43" t="n">
-        <v>1175.254078407044</v>
+        <v>1175.254078407045</v>
       </c>
       <c r="N43" t="n">
         <v>1562.58640817326</v>
@@ -7585,34 +7585,34 @@
         <v>1907.902968980881</v>
       </c>
       <c r="P43" t="n">
-        <v>2186.607463836741</v>
+        <v>2186.607463836742</v>
       </c>
       <c r="Q43" t="n">
         <v>2310.515451009375</v>
       </c>
       <c r="R43" t="n">
-        <v>2268.136092108252</v>
+        <v>2268.136092108251</v>
       </c>
       <c r="S43" t="n">
-        <v>2124.052846230104</v>
+        <v>2124.052846230103</v>
       </c>
       <c r="T43" t="n">
-        <v>1949.961262066913</v>
+        <v>1949.961262066912</v>
       </c>
       <c r="U43" t="n">
         <v>1708.556640239472</v>
       </c>
       <c r="V43" t="n">
-        <v>1501.570697258686</v>
+        <v>1501.570697258685</v>
       </c>
       <c r="W43" t="n">
-        <v>1259.852072446826</v>
+        <v>1259.852072446825</v>
       </c>
       <c r="X43" t="n">
-        <v>1079.561066773909</v>
+        <v>1079.561066773908</v>
       </c>
       <c r="Y43" t="n">
-        <v>906.4670328554791</v>
+        <v>906.4670328554787</v>
       </c>
     </row>
     <row r="44">
@@ -7625,73 +7625,73 @@
         <v>2031.690501674505</v>
       </c>
       <c r="C44" t="n">
-        <v>1710.426529959193</v>
+        <v>1710.426529959194</v>
       </c>
       <c r="D44" t="n">
-        <v>1399.859376577543</v>
+        <v>1399.859376577544</v>
       </c>
       <c r="E44" t="n">
-        <v>1061.7696692044</v>
+        <v>1061.769669204401</v>
       </c>
       <c r="F44" t="n">
-        <v>698.4823096398927</v>
+        <v>698.4823096398936</v>
       </c>
       <c r="G44" t="n">
         <v>331.0961361208586</v>
       </c>
       <c r="H44" t="n">
-        <v>81.0854352662827</v>
+        <v>81.08543526628272</v>
       </c>
       <c r="I44" t="n">
-        <v>81.0854352662827</v>
+        <v>81.08543526628272</v>
       </c>
       <c r="J44" t="n">
-        <v>436.3496555740757</v>
+        <v>268.9440065537227</v>
       </c>
       <c r="K44" t="n">
-        <v>768.6394748690186</v>
+        <v>601.2338258486656</v>
       </c>
       <c r="L44" t="n">
-        <v>1217.776140638098</v>
+        <v>1250.20410189607</v>
       </c>
       <c r="M44" t="n">
-        <v>1749.196658121012</v>
+        <v>1781.624619378984</v>
       </c>
       <c r="N44" t="n">
-        <v>2293.829923538678</v>
+        <v>2326.257884796651</v>
       </c>
       <c r="O44" t="n">
-        <v>2794.776410843991</v>
+        <v>2827.204372101963</v>
       </c>
       <c r="P44" t="n">
-        <v>3473.771073767013</v>
+        <v>3538.830329441266</v>
       </c>
       <c r="Q44" t="n">
-        <v>3930.950771576551</v>
+        <v>3996.010027250804</v>
       </c>
       <c r="R44" t="n">
-        <v>4054.271763314135</v>
+        <v>4054.271763314136</v>
       </c>
       <c r="S44" t="n">
-        <v>3991.400069591495</v>
+        <v>3991.400069591496</v>
       </c>
       <c r="T44" t="n">
-        <v>3833.067161451894</v>
+        <v>3833.067161451895</v>
       </c>
       <c r="U44" t="n">
-        <v>3627.2342484637</v>
+        <v>3627.234248463701</v>
       </c>
       <c r="V44" t="n">
-        <v>3343.86990634523</v>
+        <v>3343.869906345231</v>
       </c>
       <c r="W44" t="n">
-        <v>3038.799796300216</v>
+        <v>3038.799796300217</v>
       </c>
       <c r="X44" t="n">
-        <v>2713.032583264237</v>
+        <v>2713.032583264238</v>
       </c>
       <c r="Y44" t="n">
-        <v>2370.591796513526</v>
+        <v>2370.591796513527</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>180.65599766883</v>
       </c>
       <c r="H45" t="n">
-        <v>90.09070624042073</v>
+        <v>90.09070624042074</v>
       </c>
       <c r="I45" t="n">
-        <v>81.0854352662827</v>
+        <v>81.08543526628272</v>
       </c>
       <c r="J45" t="n">
         <v>174.1548664080374</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>772.5171132503393</v>
+        <v>772.5171132503395</v>
       </c>
       <c r="C46" t="n">
-        <v>651.2794755475329</v>
+        <v>651.2794755475331</v>
       </c>
       <c r="D46" t="n">
-        <v>548.8613813602977</v>
+        <v>548.8613813602979</v>
       </c>
       <c r="E46" t="n">
         <v>448.6468330030052</v>
       </c>
       <c r="F46" t="n">
-        <v>349.4554307301953</v>
+        <v>349.4554307301954</v>
       </c>
       <c r="G46" t="n">
-        <v>229.4456360632916</v>
+        <v>229.4456360632917</v>
       </c>
       <c r="H46" t="n">
-        <v>130.8780654621113</v>
+        <v>130.8780654621114</v>
       </c>
       <c r="I46" t="n">
-        <v>81.0854352662827</v>
+        <v>81.08543526628272</v>
       </c>
       <c r="J46" t="n">
-        <v>172.5760736420631</v>
+        <v>172.576073642063</v>
       </c>
       <c r="K46" t="n">
-        <v>422.6859448849484</v>
+        <v>422.6859448849482</v>
       </c>
       <c r="L46" t="n">
-        <v>785.1931837308106</v>
+        <v>785.1931837308103</v>
       </c>
       <c r="M46" t="n">
         <v>1175.254078407044</v>
@@ -7819,37 +7819,37 @@
         <v>1562.58640817326</v>
       </c>
       <c r="O46" t="n">
-        <v>1907.90296898088</v>
+        <v>1907.902968980881</v>
       </c>
       <c r="P46" t="n">
-        <v>2186.60746383674</v>
+        <v>2186.607463836741</v>
       </c>
       <c r="Q46" t="n">
-        <v>2310.515451009374</v>
+        <v>2310.515451009375</v>
       </c>
       <c r="R46" t="n">
-        <v>2268.136092108251</v>
+        <v>2268.136092108252</v>
       </c>
       <c r="S46" t="n">
-        <v>2124.052846230103</v>
+        <v>2124.052846230104</v>
       </c>
       <c r="T46" t="n">
-        <v>1949.961262066912</v>
+        <v>1949.961262066913</v>
       </c>
       <c r="U46" t="n">
-        <v>1708.556640239471</v>
+        <v>1708.556640239472</v>
       </c>
       <c r="V46" t="n">
-        <v>1501.570697258685</v>
+        <v>1501.570697258686</v>
       </c>
       <c r="W46" t="n">
-        <v>1259.852072446825</v>
+        <v>1259.852072446826</v>
       </c>
       <c r="X46" t="n">
-        <v>1079.561066773908</v>
+        <v>1079.561066773909</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.4670328554785</v>
+        <v>906.4670328554787</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>235.3925885601156</v>
       </c>
       <c r="L2" t="n">
-        <v>251.0691524851223</v>
+        <v>250.4508600602684</v>
       </c>
       <c r="M2" t="n">
         <v>245.6489707424078</v>
       </c>
       <c r="N2" t="n">
-        <v>244.097508686872</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>152.5258840646401</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M3" t="n">
-        <v>157.4367714371534</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>146.0261571736144</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>149.5691213715194</v>
+        <v>150.1874137963733</v>
       </c>
       <c r="M4" t="n">
         <v>154.2285214627401</v>
@@ -8149,7 +8149,7 @@
         <v>142.9882819803682</v>
       </c>
       <c r="O4" t="n">
-        <v>153.7592759669778</v>
+        <v>153.1409835421239</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8222,16 +8222,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N5" t="n">
-        <v>244.097508686872</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>245.4009489368218</v>
       </c>
       <c r="P5" t="n">
-        <v>246.5357332704046</v>
+        <v>245.9174408455507</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,19 +8298,19 @@
         <v>153.144176489494</v>
       </c>
       <c r="L6" t="n">
-        <v>153.8571172950092</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>156.8184790122994</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>148.6588525046114</v>
       </c>
       <c r="Q6" t="n">
         <v>155.2845116011566</v>
@@ -8383,10 +8383,10 @@
         <v>154.2285214627401</v>
       </c>
       <c r="N7" t="n">
-        <v>142.9882819803682</v>
+        <v>142.3699895555143</v>
       </c>
       <c r="O7" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,10 +8453,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L8" t="n">
-        <v>262.2416917349371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>257.9362584875889</v>
@@ -8465,7 +8465,7 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>257.6882366820029</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P8" t="n">
         <v>258.8230210155857</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>165.029656544824</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M9" t="n">
         <v>169.7240591823345</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O9" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>167.5717993463377</v>
+        <v>166.4570508509713</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>239.6185685314247</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.30357787152427</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858379</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.546395060289583</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>239.6185685314247</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>239.618568531429</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.546395060289583</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>70.5219533593509</v>
       </c>
       <c r="M17" t="n">
-        <v>239.6185685314289</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.12574714858379</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.546395060289583</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9410,13 +9410,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>239.6185685314291</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>70.52195335935107</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.12574714858379</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>256.7157281160049</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>46.74744185578659</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858399</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>360.9288627840804</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>273.5165830172814</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.12574714858387</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.546395060289583</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>303.6626695232671</v>
+        <v>101.12878015634</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.12574714858389</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.546395060289583</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>47.31704632282731</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>199.0746560330493</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.12574714858434</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.5463950602900332</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>136.1357117212847</v>
+        <v>8.420886399935171</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.5463950602900332</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,19 +10823,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>411.82041785449</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>355.1656491629095</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.5463950602900332</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>288.8378047206942</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>83.49158083014785</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.5463950602900332</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>201.8521315942681</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>288.8378047206942</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.1875238941148</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>319.0308667208337</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>181.152570779161</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.9959136058801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.3528914163738</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>23.35289141636549</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>336.4918166133068</v>
       </c>
       <c r="C14" t="n">
-        <v>218.6732040800333</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>163.6916208866879</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>281.5102334199614</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>23.35289141637358</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>23.35289141636688</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>117.9300592710717</v>
+        <v>181.1525707791611</v>
       </c>
       <c r="C17" t="n">
-        <v>319.0308667208341</v>
+        <v>319.0308667208337</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.22251150808944</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>23.3528914163669</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>23.35289141637361</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>308.4410165705095</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>135.4915909934743</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>364.6918465065199</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.01330714860336</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>157.7291137808808</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>23.35289141637358</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>23.35289141636705</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>23.35289141637394</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>23.35289141636645</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>77.33346508301918</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H28" t="n">
         <v>144.803454668018</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>89.17712508496179</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>81.023991161978</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>150.038618206864</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I31" t="n">
         <v>96.51626366671982</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>89.17712508496179</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>167.4861038108226</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>176.6530130965041</v>
       </c>
       <c r="C34" t="n">
-        <v>164.0678540131946</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.4365059327791</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.2549955611359</v>
+        <v>60.61831203031755</v>
       </c>
       <c r="F34" t="n">
         <v>142.242080937498</v>
@@ -25090,10 +25090,10 @@
         <v>162.8522894076509</v>
       </c>
       <c r="H34" t="n">
-        <v>141.6244875825847</v>
+        <v>141.6244875825848</v>
       </c>
       <c r="I34" t="n">
-        <v>93.33729658128658</v>
+        <v>93.33729658128661</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>85.99815799952857</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>186.6850061067832</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.19513372602343</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>909845.7749305286</v>
+        <v>909845.7749305288</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>909845.7749305288</v>
+        <v>909845.7749305289</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>966803.8916098842</v>
+        <v>966803.8916098843</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>952801.2528866103</v>
+        <v>952801.2528866102</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.06191857</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185698</v>
-      </c>
       <c r="E2" t="n">
-        <v>468400.019307174</v>
+        <v>468400.0193071744</v>
       </c>
       <c r="F2" t="n">
+        <v>468400.0193071744</v>
+      </c>
+      <c r="G2" t="n">
+        <v>468400.0193071743</v>
+      </c>
+      <c r="H2" t="n">
         <v>468400.0193071741</v>
       </c>
-      <c r="G2" t="n">
-        <v>468400.0193071741</v>
-      </c>
-      <c r="H2" t="n">
-        <v>468400.0193071743</v>
-      </c>
       <c r="I2" t="n">
-        <v>492288.7802821738</v>
+        <v>492288.7802821741</v>
       </c>
       <c r="J2" t="n">
-        <v>476413.5453424213</v>
+        <v>476413.5453424211</v>
       </c>
       <c r="K2" t="n">
-        <v>476413.5453424213</v>
+        <v>476413.5453424212</v>
       </c>
       <c r="L2" t="n">
         <v>477504.9086486829</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="O2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.0619185701</v>
       </c>
     </row>
     <row r="3">
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>34273.67550078238</v>
+        <v>34273.67550078235</v>
       </c>
       <c r="J3" t="n">
-        <v>50485.56084247953</v>
+        <v>50485.56084247983</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2543.173668346594</v>
+        <v>2543.173668346572</v>
       </c>
       <c r="M3" t="n">
-        <v>207614.9838405071</v>
+        <v>207614.9838405069</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>400529.7967627071</v>
       </c>
       <c r="E4" t="n">
-        <v>59265.34808168137</v>
+        <v>59265.34808168161</v>
       </c>
       <c r="F4" t="n">
-        <v>59265.34808168137</v>
+        <v>59265.34808168155</v>
       </c>
       <c r="G4" t="n">
-        <v>59265.34808168136</v>
+        <v>59265.34808168156</v>
       </c>
       <c r="H4" t="n">
-        <v>59265.34808168137</v>
+        <v>59265.34808168156</v>
       </c>
       <c r="I4" t="n">
-        <v>70497.60739125426</v>
+        <v>70497.60739125445</v>
       </c>
       <c r="J4" t="n">
         <v>39440.71450766083</v>
       </c>
       <c r="K4" t="n">
-        <v>39440.71450766084</v>
+        <v>39440.71450766086</v>
       </c>
       <c r="L4" t="n">
-        <v>41582.38947844865</v>
+        <v>41582.38947844861</v>
       </c>
       <c r="M4" t="n">
         <v>71135.01487382789</v>
       </c>
       <c r="N4" t="n">
-        <v>71135.01487382788</v>
+        <v>71135.01487382789</v>
       </c>
       <c r="O4" t="n">
-        <v>71135.01487382789</v>
+        <v>71135.01487382787</v>
       </c>
       <c r="P4" t="n">
-        <v>71135.01487382788</v>
+        <v>71135.01487382787</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>35305.07353582722</v>
       </c>
       <c r="E5" t="n">
-        <v>81582.25662839011</v>
+        <v>81582.25662839008</v>
       </c>
       <c r="F5" t="n">
-        <v>81582.25662839011</v>
+        <v>81582.25662839008</v>
       </c>
       <c r="G5" t="n">
-        <v>81582.25662839011</v>
+        <v>81582.25662839008</v>
       </c>
       <c r="H5" t="n">
-        <v>81582.25662839011</v>
+        <v>81582.25662839008</v>
       </c>
       <c r="I5" t="n">
-        <v>89418.56692523605</v>
+        <v>89418.56692523601</v>
       </c>
       <c r="J5" t="n">
         <v>96332.3136313243</v>
@@ -26497,7 +26497,7 @@
         <v>96332.31363132433</v>
       </c>
       <c r="L5" t="n">
-        <v>95852.49912032259</v>
+        <v>95852.49912032258</v>
       </c>
       <c r="M5" t="n">
         <v>89286.06798705639</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50412.20886058456</v>
+        <v>50412.20886058444</v>
       </c>
       <c r="C6" t="n">
-        <v>55540.50816486912</v>
+        <v>55540.50816486929</v>
       </c>
       <c r="D6" t="n">
-        <v>52973.39142774988</v>
+        <v>52973.39142775006</v>
       </c>
       <c r="E6" t="n">
-        <v>-839507.4236341307</v>
+        <v>-839608.3613116778</v>
       </c>
       <c r="F6" t="n">
-        <v>327552.4145971027</v>
+        <v>327451.4769195555</v>
       </c>
       <c r="G6" t="n">
-        <v>327552.4145971026</v>
+        <v>327451.4769195552</v>
       </c>
       <c r="H6" t="n">
-        <v>327552.4145971028</v>
+        <v>327451.4769195551</v>
       </c>
       <c r="I6" t="n">
-        <v>298098.9304649011</v>
+        <v>298097.5292914162</v>
       </c>
       <c r="J6" t="n">
-        <v>290154.9563609567</v>
+        <v>290087.4083752222</v>
       </c>
       <c r="K6" t="n">
-        <v>340640.5172034361</v>
+        <v>340572.969217702</v>
       </c>
       <c r="L6" t="n">
-        <v>337526.846381565</v>
+        <v>337463.8457429406</v>
       </c>
       <c r="M6" t="n">
-        <v>124588.9952171787</v>
+        <v>124588.9952171788</v>
       </c>
       <c r="N6" t="n">
-        <v>332203.9790576858</v>
+        <v>332203.9790576859</v>
       </c>
       <c r="O6" t="n">
         <v>332203.9790576859</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="F2" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="G2" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="H2" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="I2" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="M2" t="n">
         <v>47.22155977284952</v>
       </c>
       <c r="N2" t="n">
+        <v>47.22155977284952</v>
+      </c>
+      <c r="O2" t="n">
         <v>47.2215597728495</v>
       </c>
-      <c r="O2" t="n">
-        <v>47.22155977284951</v>
-      </c>
       <c r="P2" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="E4" t="n">
-        <v>888.2149333603491</v>
+        <v>888.214933360348</v>
       </c>
       <c r="F4" t="n">
-        <v>888.2149333603491</v>
+        <v>888.214933360348</v>
       </c>
       <c r="G4" t="n">
-        <v>888.2149333603491</v>
+        <v>888.214933360348</v>
       </c>
       <c r="H4" t="n">
-        <v>888.2149333603491</v>
+        <v>888.214933360348</v>
       </c>
       <c r="I4" t="n">
-        <v>1017.101615874263</v>
+        <v>1017.101615874261</v>
       </c>
       <c r="J4" t="n">
         <v>1194.754042026093</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="M2" t="n">
-        <v>44.04259268741627</v>
+        <v>44.0425926874163</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>12.28728774518109</v>
       </c>
       <c r="E4" t="n">
-        <v>860.6249081000329</v>
+        <v>860.6249081000319</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>128.8866825139135</v>
+        <v>128.8866825139133</v>
       </c>
       <c r="J4" t="n">
-        <v>192.9551636669655</v>
+        <v>192.9551636669667</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>691.7260946476546</v>
+        <v>691.7260946476536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>12.28728774518109</v>
       </c>
       <c r="M4" t="n">
-        <v>860.6249081000329</v>
+        <v>860.6249081000319</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>134.5663804260146</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,7 +27433,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>244.5042527585278</v>
+        <v>239.4310091456267</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>132.1423280495037</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>123.8648659598797</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>210.6386445658398</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>217.4978496342902</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>236.3922456457846</v>
       </c>
       <c r="X3" t="n">
-        <v>190.4702476883424</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>192.9506359002313</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>153.7681698952969</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27576,28 +27576,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>75.40483278346996</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>212.6428519131464</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>271.0162918413558</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>236.834905808693</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>271.220260821456</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>367.4311041483455</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27658,25 +27658,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>134.5663804260146</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>205.5321175974592</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>236.0429153927014</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>342.6383632557935</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>151.2304461347323</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>142.3423429402659</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>122.0407796480756</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>99.50338435942338</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>158.9511112267647</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>190.4702476883424</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.0747697137129</v>
+        <v>164.5292426668022</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>130.1183105077962</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27819,16 +27819,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>275.5618188882664</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>210.4069178739021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>203.2819158369597</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,25 +27856,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>327.0930163603668</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>379.2860204813953</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>387.7127122548189</v>
+        <v>397.87748900756</v>
       </c>
       <c r="H8" t="n">
-        <v>337.113496435638</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27904,13 +27904,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27935,16 +27935,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>123.1437713153523</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>130.0550551950848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>147.3818768545514</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="10">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.7841281221011</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>139.6567958383117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>58.57201799137825</v>
@@ -28062,16 +28062,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="C11" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="D11" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="E11" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="F11" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="G11" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="H11" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="I11" t="n">
         <v>42.04518470759555</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="T11" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="U11" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="V11" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="W11" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="X11" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="C13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="D13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="E13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="F13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="G13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="H13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="I13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="J13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="K13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="L13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="M13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="N13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="O13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="P13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="R13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="S13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="T13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="U13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="V13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="W13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="X13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.2420250501735</v>
+        <v>46.24202505017386</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="C14" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="D14" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="E14" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="F14" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="G14" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="H14" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="I14" t="n">
         <v>42.04518470759555</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="T14" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="U14" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="V14" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="W14" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="X14" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="C16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="D16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="E16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="F16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="G16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="H16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="I16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="J16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="K16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="L16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="M16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="N16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="O16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="P16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="R16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="S16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="T16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="U16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="V16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="W16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="X16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="C17" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="D17" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="E17" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="F17" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="G17" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="H17" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="I17" t="n">
         <v>42.04518470759555</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="T17" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="U17" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="V17" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="W17" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="X17" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="C19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="D19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="E19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="F19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="G19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="H19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="I19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="J19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="K19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="L19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="M19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="N19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="O19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="P19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="R19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="S19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="T19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="U19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="V19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="W19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="X19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="C20" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="D20" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="E20" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="F20" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="G20" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="H20" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="I20" t="n">
         <v>42.04518470759555</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="T20" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="U20" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="V20" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="W20" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="X20" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="C22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="D22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="E22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="F22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="G22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="H22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="I22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="J22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="K22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="L22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="M22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="N22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="O22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="P22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="R22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="S22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="T22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="U22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="V22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="W22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="X22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="C23" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="D23" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="E23" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="F23" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="G23" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="H23" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="I23" t="n">
         <v>42.04518470759555</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="T23" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="U23" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="V23" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="W23" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="X23" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="C25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="D25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="E25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="F25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="G25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="H25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="I25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="J25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="K25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="L25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="M25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="N25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="O25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="P25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="R25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="S25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="T25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="U25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="V25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="W25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="X25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.2420250501735</v>
+        <v>46.2420250501738</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="C32" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="D32" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="E32" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="F32" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="G32" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="H32" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="I32" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="T32" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="U32" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="V32" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="W32" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="X32" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="C34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="D34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="E34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="F34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="G34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="H34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="I34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="J34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="K34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="L34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="M34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="N34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="O34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="P34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="R34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="S34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="T34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="U34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="V34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="W34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="X34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.178967085433243</v>
+        <v>3.178967085433214</v>
       </c>
     </row>
     <row r="35">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="C38" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="D38" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="E38" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="F38" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="G38" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="H38" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="I38" t="n">
         <v>42.04518470759555</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="T38" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="U38" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="V38" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="W38" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="X38" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="C40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="D40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="E40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="F40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="G40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="H40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="I40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="J40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="K40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="L40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="M40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="N40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="O40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="P40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="R40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="S40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="T40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="U40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="V40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="W40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="X40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.2215597728495</v>
+        <v>47.22155977284952</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="C41" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="D41" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="E41" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="F41" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="G41" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="H41" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="I41" t="n">
         <v>42.04518470759555</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="T41" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="U41" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="V41" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="W41" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="X41" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="C43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="D43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="E43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="F43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="G43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="H43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="I43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="J43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="K43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="L43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="M43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="N43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="O43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="P43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="R43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="S43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="T43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="U43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="V43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="W43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="X43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="C44" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="D44" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="E44" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="F44" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="G44" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="H44" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="I44" t="n">
         <v>42.04518470759555</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="T44" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="U44" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="V44" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="W44" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="X44" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="C46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="D46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="E46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="F46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="G46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="H46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="I46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="J46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="K46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="L46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="M46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="N46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="O46" t="n">
-        <v>47.22155977284831</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="P46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="R46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="S46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="T46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="U46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="V46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="W46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="X46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.22155977284951</v>
+        <v>47.22155977284949</v>
       </c>
     </row>
   </sheetData>
@@ -34702,13 +34702,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L2" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="N2" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34860,7 +34860,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
         <v>15.30273751513505</v>
@@ -34869,7 +34869,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O4" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N5" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="P5" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>15.30273751513505</v>
@@ -35103,10 +35103,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N7" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="O7" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O7" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L8" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>27.59002526031614</v>
@@ -35185,7 +35185,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P8" t="n">
         <v>27.59002526031614</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M9" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>335.6462821161039</v>
       </c>
       <c r="L11" t="n">
-        <v>453.6733997667469</v>
+        <v>693.2919682981716</v>
       </c>
       <c r="M11" t="n">
         <v>536.7884014978928</v>
@@ -35428,10 +35428,10 @@
         <v>397.0153901510453</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.797674555089</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R11" t="n">
-        <v>86.15381631933393</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>91.43525151548604</v>
+        <v>91.43525151548639</v>
       </c>
       <c r="K13" t="n">
-        <v>251.656698855996</v>
+        <v>251.6566988559963</v>
       </c>
       <c r="L13" t="n">
-        <v>365.1893934044575</v>
+        <v>365.1893934044579</v>
       </c>
       <c r="M13" t="n">
-        <v>393.0213689906913</v>
+        <v>393.0213689906917</v>
       </c>
       <c r="N13" t="n">
-        <v>390.265242818956</v>
+        <v>390.2652428189564</v>
       </c>
       <c r="O13" t="n">
-        <v>347.8250721537089</v>
+        <v>347.8250721537093</v>
       </c>
       <c r="P13" t="n">
-        <v>280.5401570509204</v>
+        <v>280.5401570509208</v>
       </c>
       <c r="Q13" t="n">
-        <v>124.1800482799844</v>
+        <v>124.1800482799848</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>335.6462821161039</v>
       </c>
       <c r="L14" t="n">
-        <v>453.6733997667469</v>
+        <v>693.2919682981716</v>
       </c>
       <c r="M14" t="n">
         <v>536.7884014978928</v>
@@ -35659,7 +35659,7 @@
         <v>550.1346115329961</v>
       </c>
       <c r="O14" t="n">
-        <v>745.625121365078</v>
+        <v>506.006552833649</v>
       </c>
       <c r="P14" t="n">
         <v>397.0153901510453</v>
@@ -35738,7 +35738,7 @@
         <v>476.615918947954</v>
       </c>
       <c r="O15" t="n">
-        <v>413.566213785107</v>
+        <v>413.5662137851082</v>
       </c>
       <c r="P15" t="n">
         <v>312.3949974633269</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>91.43525151548604</v>
+        <v>91.43525151548633</v>
       </c>
       <c r="K16" t="n">
-        <v>251.656698855996</v>
+        <v>251.6566988559962</v>
       </c>
       <c r="L16" t="n">
-        <v>365.1893934044575</v>
+        <v>365.1893934044578</v>
       </c>
       <c r="M16" t="n">
-        <v>393.0213689906913</v>
+        <v>393.0213689906916</v>
       </c>
       <c r="N16" t="n">
-        <v>390.265242818956</v>
+        <v>390.2652428189563</v>
       </c>
       <c r="O16" t="n">
-        <v>347.8250721537089</v>
+        <v>347.8250721537092</v>
       </c>
       <c r="P16" t="n">
-        <v>280.5401570509204</v>
+        <v>280.5401570509207</v>
       </c>
       <c r="Q16" t="n">
-        <v>124.1800482799844</v>
+        <v>124.1800482799847</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>189.7561326135757</v>
+        <v>358.8527477856495</v>
       </c>
       <c r="K17" t="n">
         <v>335.6462821161039</v>
       </c>
       <c r="L17" t="n">
-        <v>453.6733997667469</v>
+        <v>524.1953531260978</v>
       </c>
       <c r="M17" t="n">
-        <v>776.4069700293217</v>
+        <v>536.7884014978928</v>
       </c>
       <c r="N17" t="n">
         <v>550.1346115329961</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>91.43525151548604</v>
+        <v>91.43525151548633</v>
       </c>
       <c r="K19" t="n">
-        <v>251.656698855996</v>
+        <v>251.6566988559962</v>
       </c>
       <c r="L19" t="n">
-        <v>365.1893934044575</v>
+        <v>365.1893934044578</v>
       </c>
       <c r="M19" t="n">
-        <v>393.0213689906913</v>
+        <v>393.0213689906916</v>
       </c>
       <c r="N19" t="n">
-        <v>390.265242818956</v>
+        <v>390.2652428189563</v>
       </c>
       <c r="O19" t="n">
-        <v>347.8250721537089</v>
+        <v>347.8250721537092</v>
       </c>
       <c r="P19" t="n">
-        <v>280.5401570509204</v>
+        <v>280.5401570509207</v>
       </c>
       <c r="Q19" t="n">
-        <v>124.1800482799844</v>
+        <v>124.1800482799847</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>189.7561326135757</v>
+        <v>358.8527477856495</v>
       </c>
       <c r="K20" t="n">
         <v>335.6462821161039</v>
@@ -36130,13 +36130,13 @@
         <v>536.7884014978928</v>
       </c>
       <c r="N20" t="n">
-        <v>789.7531800644252</v>
+        <v>550.1346115329961</v>
       </c>
       <c r="O20" t="n">
         <v>506.006552833649</v>
       </c>
       <c r="P20" t="n">
-        <v>397.0153901510453</v>
+        <v>467.5373435103964</v>
       </c>
       <c r="Q20" t="n">
         <v>249.4826838951843</v>
@@ -36203,7 +36203,7 @@
         <v>239.6215216435082</v>
       </c>
       <c r="L21" t="n">
-        <v>368.9911525934185</v>
+        <v>368.9911525934173</v>
       </c>
       <c r="M21" t="n">
         <v>450.147662981428</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>91.43525151548604</v>
+        <v>91.43525151548633</v>
       </c>
       <c r="K22" t="n">
-        <v>251.656698855996</v>
+        <v>251.6566988559962</v>
       </c>
       <c r="L22" t="n">
-        <v>365.1893934044575</v>
+        <v>365.1893934044578</v>
       </c>
       <c r="M22" t="n">
-        <v>393.0213689906913</v>
+        <v>393.0213689906916</v>
       </c>
       <c r="N22" t="n">
-        <v>390.265242818956</v>
+        <v>390.2652428189563</v>
       </c>
       <c r="O22" t="n">
-        <v>347.8250721537089</v>
+        <v>347.8250721537092</v>
       </c>
       <c r="P22" t="n">
-        <v>280.5401570509204</v>
+        <v>280.5401570509207</v>
       </c>
       <c r="Q22" t="n">
-        <v>124.1800482799844</v>
+        <v>124.1800482799847</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>358.8527477856495</v>
       </c>
       <c r="K23" t="n">
-        <v>335.6462821161039</v>
+        <v>659.7916946872687</v>
       </c>
       <c r="L23" t="n">
-        <v>453.6733997667469</v>
+        <v>710.3891278827517</v>
       </c>
       <c r="M23" t="n">
         <v>536.7884014978928</v>
@@ -36373,13 +36373,13 @@
         <v>506.006552833649</v>
       </c>
       <c r="P23" t="n">
-        <v>718.814098322528</v>
+        <v>397.0153901510453</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.797674555089</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R23" t="n">
-        <v>105.5976803035962</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>91.43525151548604</v>
+        <v>91.43525151548633</v>
       </c>
       <c r="K25" t="n">
-        <v>251.656698855996</v>
+        <v>251.6566988559962</v>
       </c>
       <c r="L25" t="n">
-        <v>365.1893934044575</v>
+        <v>365.1893934044578</v>
       </c>
       <c r="M25" t="n">
-        <v>393.0213689906913</v>
+        <v>393.0213689906916</v>
       </c>
       <c r="N25" t="n">
-        <v>390.265242818956</v>
+        <v>390.2652428189562</v>
       </c>
       <c r="O25" t="n">
-        <v>347.8250721537089</v>
+        <v>347.8250721537092</v>
       </c>
       <c r="P25" t="n">
-        <v>280.5401570509204</v>
+        <v>280.5401570509207</v>
       </c>
       <c r="Q25" t="n">
-        <v>124.1800482799844</v>
+        <v>124.1800482799847</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>358.8527477856495</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K26" t="n">
-        <v>335.6462821161039</v>
+        <v>659.7916946872687</v>
       </c>
       <c r="L26" t="n">
-        <v>871.3346143171973</v>
+        <v>453.6733997667469</v>
       </c>
       <c r="M26" t="n">
         <v>536.7884014978928</v>
       </c>
       <c r="N26" t="n">
-        <v>550.1346115329961</v>
+        <v>911.0634743170765</v>
       </c>
       <c r="O26" t="n">
         <v>886.8067340963944</v>
       </c>
       <c r="P26" t="n">
-        <v>670.5319731683268</v>
+        <v>718.814098322528</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.797674555089</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R26" t="n">
-        <v>58.85023844780966</v>
+        <v>124.5666583207921</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>358.8527477856495</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K29" t="n">
-        <v>639.308951639371</v>
+        <v>436.775062272444</v>
       </c>
       <c r="L29" t="n">
         <v>453.6733997667469</v>
@@ -36841,7 +36841,7 @@
         <v>536.7884014978928</v>
       </c>
       <c r="N29" t="n">
-        <v>550.1346115329961</v>
+        <v>987.4815359449802</v>
       </c>
       <c r="O29" t="n">
         <v>886.8067340963944</v>
@@ -36853,7 +36853,7 @@
         <v>461.797674555089</v>
       </c>
       <c r="R29" t="n">
-        <v>124.5666583207921</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>189.7561326135757</v>
+        <v>358.8527477856495</v>
       </c>
       <c r="K32" t="n">
-        <v>335.6462821161039</v>
+        <v>659.7916946872687</v>
       </c>
       <c r="L32" t="n">
-        <v>453.6733997667469</v>
+        <v>871.3346143171973</v>
       </c>
       <c r="M32" t="n">
         <v>536.7884014978928</v>
       </c>
       <c r="N32" t="n">
-        <v>987.4815359449802</v>
+        <v>597.4516578558234</v>
       </c>
       <c r="O32" t="n">
         <v>886.8067340963944</v>
       </c>
       <c r="P32" t="n">
-        <v>718.814098322528</v>
+        <v>397.0153901510453</v>
       </c>
       <c r="Q32" t="n">
-        <v>448.5573399282335</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R32" t="n">
         <v>124.5666583207921</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>48.37219355074578</v>
+        <v>48.37219355074575</v>
       </c>
       <c r="K34" t="n">
         <v>208.5936408912557</v>
@@ -37239,13 +37239,13 @@
         <v>347.2021848542157</v>
       </c>
       <c r="O34" t="n">
-        <v>304.7620141889687</v>
+        <v>304.7620141889686</v>
       </c>
       <c r="P34" t="n">
         <v>237.4770990861801</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.11699031524417</v>
+        <v>81.11699031524414</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>325.8918443348604</v>
+        <v>198.1770190135109</v>
       </c>
       <c r="K35" t="n">
         <v>335.6462821161039</v>
@@ -37312,7 +37312,7 @@
         <v>453.6733997667469</v>
       </c>
       <c r="M35" t="n">
-        <v>536.7884014978928</v>
+        <v>986.3019349907253</v>
       </c>
       <c r="N35" t="n">
         <v>550.1346115329961</v>
@@ -37321,7 +37321,7 @@
         <v>506.006552833649</v>
       </c>
       <c r="P35" t="n">
-        <v>718.814098322528</v>
+        <v>397.0153901510453</v>
       </c>
       <c r="Q35" t="n">
         <v>461.797674555089</v>
@@ -37473,7 +37473,7 @@
         <v>394.0009037133673</v>
       </c>
       <c r="N37" t="n">
-        <v>391.2447775416319</v>
+        <v>391.244777541632</v>
       </c>
       <c r="O37" t="n">
         <v>348.8046068763849</v>
@@ -37543,19 +37543,19 @@
         <v>189.7561326135757</v>
       </c>
       <c r="K38" t="n">
-        <v>659.7916946872687</v>
+        <v>335.6462821161039</v>
       </c>
       <c r="L38" t="n">
-        <v>865.4938176212369</v>
+        <v>453.6733997667469</v>
       </c>
       <c r="M38" t="n">
         <v>536.7884014978928</v>
       </c>
       <c r="N38" t="n">
-        <v>550.1346115329961</v>
+        <v>905.3002606959056</v>
       </c>
       <c r="O38" t="n">
-        <v>506.006552833649</v>
+        <v>886.8067340963944</v>
       </c>
       <c r="P38" t="n">
         <v>397.0153901510453</v>
@@ -37640,7 +37640,7 @@
         <v>312.3949974633269</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.404352046536</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.41478623816204</v>
+        <v>92.41478623816205</v>
       </c>
       <c r="K40" t="n">
-        <v>252.6362335786719</v>
+        <v>252.636233578672</v>
       </c>
       <c r="L40" t="n">
         <v>366.1689281271335</v>
@@ -37710,7 +37710,7 @@
         <v>394.0009037133673</v>
       </c>
       <c r="N40" t="n">
-        <v>391.2447775416319</v>
+        <v>391.244777541632</v>
       </c>
       <c r="O40" t="n">
         <v>348.8046068763849</v>
@@ -37783,7 +37783,7 @@
         <v>335.6462821161039</v>
       </c>
       <c r="L41" t="n">
-        <v>453.6733997667469</v>
+        <v>871.3346143171973</v>
       </c>
       <c r="M41" t="n">
         <v>536.7884014978928</v>
@@ -37795,10 +37795,10 @@
         <v>506.006552833649</v>
       </c>
       <c r="P41" t="n">
-        <v>685.8531948717396</v>
+        <v>397.0153901510453</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.797674555089</v>
+        <v>332.9742647253321</v>
       </c>
       <c r="R41" t="n">
         <v>124.5666583207921</v>
@@ -37868,7 +37868,7 @@
         <v>450.147662981428</v>
       </c>
       <c r="N42" t="n">
-        <v>476.615918947953</v>
+        <v>476.615918947954</v>
       </c>
       <c r="O42" t="n">
         <v>413.5662137851082</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>358.8527477856495</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K44" t="n">
         <v>335.6462821161039</v>
       </c>
       <c r="L44" t="n">
-        <v>453.6733997667469</v>
+        <v>655.5255313610149</v>
       </c>
       <c r="M44" t="n">
         <v>536.7884014978928</v>
@@ -38032,13 +38032,13 @@
         <v>506.006552833649</v>
       </c>
       <c r="P44" t="n">
-        <v>685.8531948717396</v>
+        <v>718.814098322528</v>
       </c>
       <c r="Q44" t="n">
         <v>461.797674555089</v>
       </c>
       <c r="R44" t="n">
-        <v>124.5666583207921</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.41478623816204</v>
+        <v>92.41478623816202</v>
       </c>
       <c r="K46" t="n">
         <v>252.6362335786719</v>
@@ -38184,10 +38184,10 @@
         <v>394.0009037133673</v>
       </c>
       <c r="N46" t="n">
-        <v>391.2447775416319</v>
+        <v>391.244777541632</v>
       </c>
       <c r="O46" t="n">
-        <v>348.8046068763837</v>
+        <v>348.8046068763849</v>
       </c>
       <c r="P46" t="n">
         <v>281.5196917735964</v>
